--- a/варианты 2025/попков/в2/18.xlsx
+++ b/варианты 2025/попков/в2/18.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjhgb\PycharmProjects\isakovich2023\варианты 2025\попков\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53F3DB80-EB0D-43CC-98B2-62E612655FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A70ADF33-C66C-494F-9C72-66B531EE1D08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -241,7 +235,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -293,7 +287,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -487,23 +481,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0504F1B-A2F3-4013-863E-3BAC9D8FDA55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V31" sqref="V31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="20" width="3.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="20" width="3.85546875" customWidth="1"/>
     <col min="23" max="42" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -569,84 +564,84 @@
         <v>63</v>
       </c>
       <c r="W1" s="7">
-        <f t="shared" ref="W1:W20" si="0">IF(MOD(A1,3)=0,A1,0)</f>
-        <v>0</v>
+        <f>IF(MOD(A1,3)&lt;&gt;0,A1,0)</f>
+        <v>88</v>
       </c>
       <c r="X1" s="3">
-        <f t="shared" ref="X1:X20" si="1">IF(MOD(B1,3)=0,B1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="X1:X20" si="0">IF(MOD(B1,3)&lt;&gt;0,B1,0)</f>
+        <v>11</v>
       </c>
       <c r="Y1" s="3">
-        <f t="shared" ref="Y1:Y20" si="2">IF(MOD(C1,3)=0,C1,0)</f>
-        <v>39</v>
+        <f t="shared" ref="Y1:Y20" si="1">IF(MOD(C1,3)&lt;&gt;0,C1,0)</f>
+        <v>0</v>
       </c>
       <c r="Z1" s="4">
-        <f t="shared" ref="Z1:Z20" si="3">IF(MOD(D1,3)=0,D1,0)</f>
-        <v>63</v>
+        <f t="shared" ref="Z1:Z20" si="2">IF(MOD(D1,3)&lt;&gt;0,D1,0)</f>
+        <v>0</v>
       </c>
       <c r="AA1" s="3">
-        <f t="shared" ref="AA1:AA20" si="4">IF(MOD(E1,3)=0,E1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="AA1:AA20" si="3">IF(MOD(E1,3)&lt;&gt;0,E1,0)</f>
+        <v>77</v>
       </c>
       <c r="AB1" s="3">
-        <f t="shared" ref="AB1:AB20" si="5">IF(MOD(F1,3)=0,F1,0)</f>
-        <v>87</v>
+        <f t="shared" ref="AB1:AB20" si="4">IF(MOD(F1,3)&lt;&gt;0,F1,0)</f>
+        <v>0</v>
       </c>
       <c r="AC1" s="3">
-        <f t="shared" ref="AC1:AC20" si="6">IF(MOD(G1,3)=0,G1,0)</f>
-        <v>36</v>
+        <f t="shared" ref="AC1:AC20" si="5">IF(MOD(G1,3)&lt;&gt;0,G1,0)</f>
+        <v>0</v>
       </c>
       <c r="AD1" s="3">
-        <f t="shared" ref="AD1:AD20" si="7">IF(MOD(H1,3)=0,H1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="AD1:AD20" si="6">IF(MOD(H1,3)&lt;&gt;0,H1,0)</f>
+        <v>38</v>
       </c>
       <c r="AE1" s="3">
-        <f t="shared" ref="AE1:AE20" si="8">IF(MOD(I1,3)=0,I1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="AE1:AE20" si="7">IF(MOD(I1,3)&lt;&gt;0,I1,0)</f>
+        <v>73</v>
       </c>
       <c r="AF1" s="3">
-        <f t="shared" ref="AF1:AF20" si="9">IF(MOD(J1,3)=0,J1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="AF1:AF20" si="8">IF(MOD(J1,3)&lt;&gt;0,J1,0)</f>
+        <v>11</v>
       </c>
       <c r="AG1" s="3">
-        <f t="shared" ref="AG1:AG20" si="10">IF(MOD(K1,3)=0,K1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="AG1:AG20" si="9">IF(MOD(K1,3)&lt;&gt;0,K1,0)</f>
+        <v>80</v>
       </c>
       <c r="AH1" s="3">
-        <f t="shared" ref="AH1:AH20" si="11">IF(MOD(L1,3)=0,L1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="AH1:AH20" si="10">IF(MOD(L1,3)&lt;&gt;0,L1,0)</f>
+        <v>82</v>
       </c>
       <c r="AI1" s="3">
-        <f t="shared" ref="AI1:AI20" si="12">IF(MOD(M1,3)=0,M1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="AI1:AI20" si="11">IF(MOD(M1,3)&lt;&gt;0,M1,0)</f>
+        <v>46</v>
       </c>
       <c r="AJ1" s="3">
-        <f t="shared" ref="AJ1:AJ20" si="13">IF(MOD(N1,3)=0,N1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="AJ1:AJ20" si="12">IF(MOD(N1,3)&lt;&gt;0,N1,0)</f>
+        <v>2</v>
       </c>
       <c r="AK1" s="3">
-        <f t="shared" ref="AK1:AK20" si="14">IF(MOD(O1,3)=0,O1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="AK1:AK20" si="13">IF(MOD(O1,3)&lt;&gt;0,O1,0)</f>
+        <v>67</v>
       </c>
       <c r="AL1" s="3">
-        <f t="shared" ref="AL1:AL20" si="15">IF(MOD(P1,3)=0,P1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="AL1:AL20" si="14">IF(MOD(P1,3)&lt;&gt;0,P1,0)</f>
+        <v>100</v>
       </c>
       <c r="AM1" s="3">
-        <f t="shared" ref="AM1:AM20" si="16">IF(MOD(Q1,3)=0,Q1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="AM1:AM20" si="15">IF(MOD(Q1,3)&lt;&gt;0,Q1,0)</f>
+        <v>88</v>
       </c>
       <c r="AN1" s="3">
-        <f t="shared" ref="AN1:AN20" si="17">IF(MOD(R1,3)=0,R1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="AN1:AN20" si="16">IF(MOD(R1,3)&lt;&gt;0,R1,0)</f>
+        <v>35</v>
       </c>
       <c r="AO1" s="3">
-        <f t="shared" ref="AO1:AO20" si="18">IF(MOD(S1,3)=0,S1,0)</f>
-        <v>66</v>
+        <f t="shared" ref="AO1:AO20" si="17">IF(MOD(S1,3)&lt;&gt;0,S1,0)</f>
+        <v>0</v>
       </c>
       <c r="AP1" s="5">
-        <f t="shared" ref="AP1:AP18" si="19">IF(MOD(T1,3)=0,T1,0)</f>
-        <v>63</v>
+        <f t="shared" ref="AP1:AP20" si="18">IF(MOD(T1,3)&lt;&gt;0,T1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.25">
@@ -711,84 +706,84 @@
         <v>85</v>
       </c>
       <c r="W2" s="8">
+        <f t="shared" ref="W2:W20" si="19">IF(MOD(A2,3)&lt;&gt;0,A2,0)</f>
+        <v>61</v>
+      </c>
+      <c r="X2" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X2" s="1">
+        <v>16</v>
+      </c>
+      <c r="Y2" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y2" s="1">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z2" s="5">
+        <v>80</v>
+      </c>
+      <c r="AA2" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AB2" s="1">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="AB2" s="1">
+        <v>89</v>
+      </c>
+      <c r="AC2" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD2" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE2" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AF2" s="1">
         <f t="shared" si="8"/>
-        <v>75</v>
-      </c>
-      <c r="AF2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AH2" s="1">
         <f t="shared" si="10"/>
-        <v>81</v>
-      </c>
-      <c r="AH2" s="1">
+        <v>8</v>
+      </c>
+      <c r="AI2" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AJ2" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AJ2" s="1">
+      <c r="AK2" s="1">
         <f t="shared" si="13"/>
-        <v>87</v>
-      </c>
-      <c r="AK2" s="1">
+        <v>25</v>
+      </c>
+      <c r="AL2" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AL2" s="1">
+      <c r="AM2" s="1">
         <f t="shared" si="15"/>
-        <v>42</v>
-      </c>
-      <c r="AM2" s="1">
+        <v>35</v>
+      </c>
+      <c r="AN2" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AN2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO2" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO2" s="1">
+        <v>11</v>
+      </c>
+      <c r="AP2" s="5">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AP2" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
@@ -853,84 +848,84 @@
         <v>56</v>
       </c>
       <c r="W3" s="8">
+        <f t="shared" si="19"/>
+        <v>34</v>
+      </c>
+      <c r="X3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X3" s="1">
+        <v>53</v>
+      </c>
+      <c r="Y3" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Z3" s="5">
         <f t="shared" si="2"/>
-        <v>72</v>
-      </c>
-      <c r="Z3" s="5">
+        <v>80</v>
+      </c>
+      <c r="AA3" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AB3" s="1">
         <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="AB3" s="1">
+        <v>44</v>
+      </c>
+      <c r="AC3" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="1">
+        <v>59</v>
+      </c>
+      <c r="AD3" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD3" s="1">
+        <v>25</v>
+      </c>
+      <c r="AE3" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="1">
+        <v>65</v>
+      </c>
+      <c r="AF3" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="1">
+        <v>80</v>
+      </c>
+      <c r="AG3" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="1">
+        <v>44</v>
+      </c>
+      <c r="AH3" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH3" s="1">
+        <v>73</v>
+      </c>
+      <c r="AI3" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI3" s="1">
+        <v>7</v>
+      </c>
+      <c r="AJ3" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="1">
+        <v>79</v>
+      </c>
+      <c r="AK3" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AK3" s="1">
+      <c r="AL3" s="1">
         <f t="shared" si="14"/>
-        <v>99</v>
-      </c>
-      <c r="AL3" s="1">
+        <v>28</v>
+      </c>
+      <c r="AM3" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AM3" s="1">
+        <v>32</v>
+      </c>
+      <c r="AN3" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AN3" s="1">
+        <v>52</v>
+      </c>
+      <c r="AO3" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AO3" s="1">
+      <c r="AP3" s="5">
         <f t="shared" si="18"/>
-        <v>78</v>
-      </c>
-      <c r="AP3" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -995,84 +990,84 @@
         <v>55</v>
       </c>
       <c r="W4" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
         <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="X4" s="1">
+        <v>59</v>
+      </c>
+      <c r="Y4" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="1">
+        <v>94</v>
+      </c>
+      <c r="Z4" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="5">
+        <v>77</v>
+      </c>
+      <c r="AA4" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AB4" s="1">
         <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="AB4" s="1">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="1">
+        <v>52</v>
+      </c>
+      <c r="AD4" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD4" s="1">
+        <v>59</v>
+      </c>
+      <c r="AE4" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AF4" s="1">
         <f t="shared" si="8"/>
-        <v>75</v>
-      </c>
-      <c r="AF4" s="1">
+        <v>73</v>
+      </c>
+      <c r="AG4" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AH4" s="1">
         <f t="shared" si="10"/>
-        <v>60</v>
-      </c>
-      <c r="AH4" s="1">
+        <v>82</v>
+      </c>
+      <c r="AI4" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AJ4" s="2">
         <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="AJ4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="2">
         <f t="shared" si="13"/>
-        <v>69</v>
-      </c>
-      <c r="AK4" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL4" s="2">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AM4" s="2">
         <f t="shared" si="15"/>
-        <v>6</v>
-      </c>
-      <c r="AM4" s="2">
+        <v>59</v>
+      </c>
+      <c r="AN4" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AN4" s="2">
+        <v>64</v>
+      </c>
+      <c r="AO4" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AO4" s="1">
+      <c r="AP4" s="5">
         <f t="shared" si="18"/>
-        <v>51</v>
-      </c>
-      <c r="AP4" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:42" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1137,84 +1132,84 @@
         <v>93</v>
       </c>
       <c r="W5" s="8">
+        <f t="shared" si="19"/>
+        <v>80</v>
+      </c>
+      <c r="X5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X5" s="1">
+        <v>37</v>
+      </c>
+      <c r="Y5" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Z5" s="1">
         <f t="shared" si="2"/>
-        <v>54</v>
-      </c>
-      <c r="Z5" s="1">
+        <v>16</v>
+      </c>
+      <c r="AA5" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="1">
+        <v>59</v>
+      </c>
+      <c r="AB5" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AC5" s="1">
         <f t="shared" si="5"/>
-        <v>66</v>
-      </c>
-      <c r="AC5" s="1">
+        <v>79</v>
+      </c>
+      <c r="AD5" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AE5" s="1">
         <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
-      <c r="AE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="1">
         <f t="shared" si="8"/>
-        <v>69</v>
-      </c>
-      <c r="AF5" s="1">
+        <v>92</v>
+      </c>
+      <c r="AG5" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG5" s="1">
+        <v>8</v>
+      </c>
+      <c r="AH5" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH5" s="1">
+        <v>70</v>
+      </c>
+      <c r="AI5" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI5" s="5">
+      <c r="AJ5" s="1">
         <f t="shared" si="12"/>
-        <v>84</v>
-      </c>
-      <c r="AJ5" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK5" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AL5" s="1">
         <f t="shared" si="14"/>
-        <v>60</v>
-      </c>
-      <c r="AL5" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM5" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AM5" s="1">
+        <v>91</v>
+      </c>
+      <c r="AN5" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AN5" s="1">
+        <v>46</v>
+      </c>
+      <c r="AO5" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO5" s="1">
+        <v>74</v>
+      </c>
+      <c r="AP5" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
-      </c>
-      <c r="AP5" s="5">
-        <f t="shared" si="19"/>
-        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
@@ -1279,84 +1274,84 @@
         <v>20</v>
       </c>
       <c r="W6" s="8">
+        <f t="shared" si="19"/>
+        <v>23</v>
+      </c>
+      <c r="X6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X6" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Z6" s="1">
         <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="Z6" s="1">
+        <v>28</v>
+      </c>
+      <c r="AA6" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="1">
+        <v>23</v>
+      </c>
+      <c r="AC6" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="1">
+        <v>22</v>
+      </c>
+      <c r="AD6" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD6" s="1">
+        <v>59</v>
+      </c>
+      <c r="AE6" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="1">
+        <v>46</v>
+      </c>
+      <c r="AF6" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="1">
+        <v>67</v>
+      </c>
+      <c r="AG6" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AH6" s="1">
         <f t="shared" si="10"/>
-        <v>72</v>
-      </c>
-      <c r="AH6" s="1">
+        <v>19</v>
+      </c>
+      <c r="AI6" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI6" s="5">
+        <v>52</v>
+      </c>
+      <c r="AJ6" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="1">
+        <v>31</v>
+      </c>
+      <c r="AK6" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK6" s="1">
+        <v>14</v>
+      </c>
+      <c r="AL6" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AL6" s="1">
+        <v>34</v>
+      </c>
+      <c r="AM6" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AM6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN6" s="1">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AN6" s="1">
+      <c r="AO6" s="1">
         <f t="shared" si="17"/>
-        <v>93</v>
-      </c>
-      <c r="AO6" s="1">
+        <v>29</v>
+      </c>
+      <c r="AP6" s="5">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AP6" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
@@ -1421,84 +1416,84 @@
         <v>49</v>
       </c>
       <c r="W7" s="8">
+        <f t="shared" si="19"/>
+        <v>19</v>
+      </c>
+      <c r="X7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X7" s="1">
+        <v>25</v>
+      </c>
+      <c r="Y7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Z7" s="1">
         <f t="shared" si="2"/>
-        <v>57</v>
-      </c>
-      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
         <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="AA7" s="1">
+        <v>68</v>
+      </c>
+      <c r="AB7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AC7" s="1">
         <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-      <c r="AC7" s="1">
+        <v>29</v>
+      </c>
+      <c r="AD7" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD7" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE7" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE7" s="1">
+        <v>28</v>
+      </c>
+      <c r="AF7" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="1">
+        <v>70</v>
+      </c>
+      <c r="AG7" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AH7" s="1">
         <f t="shared" si="10"/>
-        <v>90</v>
-      </c>
-      <c r="AH7" s="1">
+        <v>52</v>
+      </c>
+      <c r="AI7" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI7" s="5">
+      <c r="AJ7" s="1">
         <f t="shared" si="12"/>
-        <v>18</v>
-      </c>
-      <c r="AJ7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK7" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AL7" s="1">
         <f t="shared" si="14"/>
-        <v>24</v>
-      </c>
-      <c r="AL7" s="1">
+        <v>46</v>
+      </c>
+      <c r="AM7" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AM7" s="1">
+      <c r="AN7" s="1">
         <f t="shared" si="16"/>
-        <v>99</v>
-      </c>
-      <c r="AN7" s="1">
+        <v>40</v>
+      </c>
+      <c r="AO7" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AO7" s="1">
+      <c r="AP7" s="5">
         <f t="shared" si="18"/>
-        <v>81</v>
-      </c>
-      <c r="AP7" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
@@ -1563,84 +1558,84 @@
         <v>25</v>
       </c>
       <c r="W8" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
         <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
-      <c r="X8" s="1">
+        <v>52</v>
+      </c>
+      <c r="Y8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="1">
+        <v>22</v>
+      </c>
+      <c r="Z8" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="1">
+        <v>37</v>
+      </c>
+      <c r="AA8" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="1">
+        <v>31</v>
+      </c>
+      <c r="AB8" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="1">
+        <v>67</v>
+      </c>
+      <c r="AC8" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD8" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AE8" s="1">
         <f t="shared" si="7"/>
-        <v>54</v>
-      </c>
-      <c r="AE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="1">
         <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
-      <c r="AF8" s="1">
+        <v>71</v>
+      </c>
+      <c r="AG8" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AH8" s="1">
         <f t="shared" si="10"/>
-        <v>99</v>
-      </c>
-      <c r="AH8" s="1">
+        <v>65</v>
+      </c>
+      <c r="AI8" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI8" s="5">
+        <v>13</v>
+      </c>
+      <c r="AJ8" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="AK8" s="1">
         <f t="shared" si="13"/>
-        <v>33</v>
-      </c>
-      <c r="AK8" s="1">
+        <v>62</v>
+      </c>
+      <c r="AL8" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AL8" s="1">
+        <v>76</v>
+      </c>
+      <c r="AM8" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AM8" s="1">
+        <v>77</v>
+      </c>
+      <c r="AN8" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AN8" s="1">
+        <v>8</v>
+      </c>
+      <c r="AO8" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AO8" s="1">
+      <c r="AP8" s="5">
         <f t="shared" si="18"/>
-        <v>96</v>
-      </c>
-      <c r="AP8" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1705,84 +1700,84 @@
         <v>18</v>
       </c>
       <c r="W9" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="Y9" s="2">
+        <v>8</v>
+      </c>
+      <c r="Z9" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="2">
+        <v>67</v>
+      </c>
+      <c r="AA9" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="2">
+        <v>86</v>
+      </c>
+      <c r="AB9" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AC9" s="1">
         <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-      <c r="AC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1">
         <f t="shared" si="6"/>
-        <v>48</v>
-      </c>
-      <c r="AD9" s="1">
+        <v>55</v>
+      </c>
+      <c r="AE9" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AF9" s="1">
         <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="AF9" s="1">
+        <v>23</v>
+      </c>
+      <c r="AG9" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG9" s="1">
+        <v>79</v>
+      </c>
+      <c r="AH9" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH9" s="1">
+        <v>100</v>
+      </c>
+      <c r="AI9" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI9" s="5">
+        <v>92</v>
+      </c>
+      <c r="AJ9" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="AK9" s="1">
         <f t="shared" si="13"/>
-        <v>87</v>
-      </c>
-      <c r="AK9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL9" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AL9" s="1">
+        <v>46</v>
+      </c>
+      <c r="AM9" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AM9" s="1">
+      <c r="AN9" s="1">
         <f t="shared" si="16"/>
-        <v>36</v>
-      </c>
-      <c r="AN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="1">
         <f t="shared" si="17"/>
-        <v>24</v>
-      </c>
-      <c r="AO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="5">
         <f t="shared" si="18"/>
-        <v>15</v>
-      </c>
-      <c r="AP9" s="5">
-        <f t="shared" si="19"/>
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1847,84 +1842,84 @@
         <v>80</v>
       </c>
       <c r="W10" s="8">
+        <f t="shared" si="19"/>
+        <v>53</v>
+      </c>
+      <c r="X10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X10" s="5">
+        <v>55</v>
+      </c>
+      <c r="Y10" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Z10" s="1">
         <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1">
         <f t="shared" si="3"/>
-        <v>87</v>
-      </c>
-      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
         <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="AB10" s="1">
+        <v>11</v>
+      </c>
+      <c r="AC10" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="1">
+        <v>98</v>
+      </c>
+      <c r="AD10" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="1">
+        <v>25</v>
+      </c>
+      <c r="AE10" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE10" s="1">
+        <v>59</v>
+      </c>
+      <c r="AF10" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF10" s="1">
+        <v>53</v>
+      </c>
+      <c r="AG10" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG10" s="1">
+        <v>52</v>
+      </c>
+      <c r="AH10" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH10" s="1">
+        <v>79</v>
+      </c>
+      <c r="AI10" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI10" s="5">
+      <c r="AJ10" s="1">
         <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="AJ10" s="1">
+        <v>11</v>
+      </c>
+      <c r="AK10" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AK10" s="1">
+      <c r="AL10" s="1">
         <f t="shared" si="14"/>
-        <v>51</v>
-      </c>
-      <c r="AL10" s="1">
+        <v>23</v>
+      </c>
+      <c r="AM10" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AM10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AN10" s="1">
+        <v>55</v>
+      </c>
+      <c r="AO10" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AO10" s="1">
+      <c r="AP10" s="5">
         <f t="shared" si="18"/>
-        <v>36</v>
-      </c>
-      <c r="AP10" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
@@ -1989,84 +1984,84 @@
         <v>25</v>
       </c>
       <c r="W11" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="5">
         <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
-      <c r="X11" s="5">
+        <v>20</v>
+      </c>
+      <c r="Y11" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="1">
+        <v>11</v>
+      </c>
+      <c r="Z11" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="1">
+        <v>11</v>
+      </c>
+      <c r="AA11" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB11" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="1">
+        <v>55</v>
+      </c>
+      <c r="AC11" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="1">
+        <v>82</v>
+      </c>
+      <c r="AD11" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="1">
+      <c r="AE11" s="1">
         <f t="shared" si="7"/>
-        <v>51</v>
-      </c>
-      <c r="AE11" s="1">
+        <v>100</v>
+      </c>
+      <c r="AF11" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AF11" s="1">
+      <c r="AG11" s="1">
         <f t="shared" si="9"/>
-        <v>69</v>
-      </c>
-      <c r="AG11" s="1">
+        <v>97</v>
+      </c>
+      <c r="AH11" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH11" s="1">
+        <v>49</v>
+      </c>
+      <c r="AI11" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI11" s="5">
+        <v>76</v>
+      </c>
+      <c r="AJ11" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AJ11" s="1">
+      <c r="AK11" s="1">
         <f t="shared" si="13"/>
-        <v>36</v>
-      </c>
-      <c r="AK11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="1">
         <f t="shared" si="14"/>
-        <v>72</v>
-      </c>
-      <c r="AL11" s="1">
+        <v>67</v>
+      </c>
+      <c r="AM11" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AM11" s="1">
+        <v>64</v>
+      </c>
+      <c r="AN11" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AN11" s="1">
+        <v>46</v>
+      </c>
+      <c r="AO11" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO11" s="1">
+        <v>100</v>
+      </c>
+      <c r="AP11" s="5">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AP11" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
@@ -2131,84 +2126,84 @@
         <v>81</v>
       </c>
       <c r="W12" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="5">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="X12" s="5">
+        <v>40</v>
+      </c>
+      <c r="Y12" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="Z12" s="1">
         <f t="shared" si="2"/>
-        <v>72</v>
-      </c>
-      <c r="Z12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="1">
         <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="AA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1">
         <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="AB12" s="1">
+        <v>98</v>
+      </c>
+      <c r="AC12" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AD12" s="1">
         <f t="shared" si="6"/>
-        <v>99</v>
-      </c>
-      <c r="AD12" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE12" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AE12" s="1">
+      <c r="AF12" s="1">
         <f t="shared" si="8"/>
-        <v>78</v>
-      </c>
-      <c r="AF12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="1">
         <f t="shared" si="9"/>
-        <v>27</v>
-      </c>
-      <c r="AG12" s="1">
+        <v>74</v>
+      </c>
+      <c r="AH12" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH12" s="1">
+        <v>53</v>
+      </c>
+      <c r="AI12" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI12" s="5">
+        <v>71</v>
+      </c>
+      <c r="AJ12" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="1">
+        <v>47</v>
+      </c>
+      <c r="AK12" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AK12" s="1">
+      <c r="AL12" s="1">
         <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="AL12" s="1">
+        <v>35</v>
+      </c>
+      <c r="AM12" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AM12" s="1">
+      <c r="AN12" s="1">
         <f t="shared" si="16"/>
-        <v>45</v>
-      </c>
-      <c r="AN12" s="1">
+        <v>73</v>
+      </c>
+      <c r="AO12" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO12" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP12" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
-      </c>
-      <c r="AP12" s="5">
-        <f t="shared" si="19"/>
-        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
@@ -2273,84 +2268,84 @@
         <v>29</v>
       </c>
       <c r="W13" s="8">
+        <f t="shared" si="19"/>
+        <v>38</v>
+      </c>
+      <c r="X13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X13" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="1">
+        <v>88</v>
+      </c>
+      <c r="Z13" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="1">
+        <v>100</v>
+      </c>
+      <c r="AA13" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="1">
+        <v>86</v>
+      </c>
+      <c r="AB13" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="1">
+        <v>68</v>
+      </c>
+      <c r="AC13" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="1">
+        <v>91</v>
+      </c>
+      <c r="AD13" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AE13" s="1">
         <f t="shared" si="7"/>
-        <v>78</v>
-      </c>
-      <c r="AE13" s="1">
+        <v>64</v>
+      </c>
+      <c r="AF13" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AG13" s="1">
         <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="AG13" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH13" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH13" s="1">
+        <v>80</v>
+      </c>
+      <c r="AI13" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI13" s="1">
+        <v>47</v>
+      </c>
+      <c r="AJ13" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AJ13" s="1">
+      <c r="AK13" s="1">
         <f t="shared" si="13"/>
-        <v>90</v>
-      </c>
-      <c r="AK13" s="1">
+        <v>85</v>
+      </c>
+      <c r="AL13" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AL13" s="1">
+        <v>50</v>
+      </c>
+      <c r="AM13" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AM13" s="1">
+      <c r="AN13" s="1">
         <f t="shared" si="16"/>
-        <v>99</v>
-      </c>
-      <c r="AN13" s="1">
+        <v>79</v>
+      </c>
+      <c r="AO13" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AO13" s="1">
+      <c r="AP13" s="5">
         <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="AP13" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
@@ -2415,84 +2410,84 @@
         <v>67</v>
       </c>
       <c r="W14" s="8">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="X14" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X14" s="5">
+        <v>91</v>
+      </c>
+      <c r="Y14" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="1">
+        <v>29</v>
+      </c>
+      <c r="Z14" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="1">
+        <v>55</v>
+      </c>
+      <c r="AA14" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="1">
+        <v>16</v>
+      </c>
+      <c r="AB14" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AC14" s="1">
         <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="AC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="1">
         <f t="shared" si="6"/>
-        <v>81</v>
-      </c>
-      <c r="AD14" s="1">
+        <v>53</v>
+      </c>
+      <c r="AE14" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG14" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="1">
+        <v>53</v>
+      </c>
+      <c r="AH14" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AH14" s="1">
+      <c r="AI14" s="1">
         <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="AI14" s="1">
+        <v>85</v>
+      </c>
+      <c r="AJ14" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="1">
+        <v>23</v>
+      </c>
+      <c r="AK14" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK14" s="1">
+        <v>37</v>
+      </c>
+      <c r="AL14" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AL14" s="1">
+        <v>62</v>
+      </c>
+      <c r="AM14" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AM14" s="1">
+      <c r="AN14" s="1">
         <f t="shared" si="16"/>
-        <v>87</v>
-      </c>
-      <c r="AN14" s="1">
+        <v>70</v>
+      </c>
+      <c r="AO14" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AO14" s="1">
+      <c r="AP14" s="5">
         <f t="shared" si="18"/>
-        <v>24</v>
-      </c>
-      <c r="AP14" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2557,84 +2552,84 @@
         <v>52</v>
       </c>
       <c r="W15" s="8">
+        <f t="shared" si="19"/>
+        <v>32</v>
+      </c>
+      <c r="X15" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X15" s="1">
+        <v>41</v>
+      </c>
+      <c r="Y15" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="1">
+        <v>16</v>
+      </c>
+      <c r="Z15" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="AA15" s="1">
         <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="AA15" s="1">
+        <v>68</v>
+      </c>
+      <c r="AB15" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB15" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC15" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="1">
+        <v>34</v>
+      </c>
+      <c r="AD15" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD15" s="1">
+        <v>46</v>
+      </c>
+      <c r="AE15" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AE15" s="2">
+      <c r="AF15" s="2">
         <f t="shared" si="8"/>
-        <v>39</v>
-      </c>
-      <c r="AF15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="2">
         <f t="shared" si="9"/>
-        <v>93</v>
-      </c>
-      <c r="AG15" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH15" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH15" s="1">
+        <v>95</v>
+      </c>
+      <c r="AI15" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI15" s="1">
+        <v>31</v>
+      </c>
+      <c r="AJ15" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="1">
+        <v>88</v>
+      </c>
+      <c r="AK15" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AK15" s="1">
+      <c r="AL15" s="1">
         <f t="shared" si="14"/>
-        <v>21</v>
-      </c>
-      <c r="AL15" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM15" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AM15" s="1">
+        <v>29</v>
+      </c>
+      <c r="AN15" s="1">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AN15" s="1">
+      <c r="AO15" s="1">
         <f t="shared" si="17"/>
-        <v>57</v>
-      </c>
-      <c r="AO15" s="1">
+        <v>71</v>
+      </c>
+      <c r="AP15" s="5">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AP15" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:42" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2699,84 +2694,84 @@
         <v>80</v>
       </c>
       <c r="W16" s="8">
+        <f t="shared" si="19"/>
+        <v>40</v>
+      </c>
+      <c r="X16" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X16" s="1">
+      <c r="Y16" s="1">
         <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1">
         <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="Z16" s="1">
+        <v>88</v>
+      </c>
+      <c r="AA16" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="1">
+        <v>89</v>
+      </c>
+      <c r="AB16" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="1">
+        <v>56</v>
+      </c>
+      <c r="AC16" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC16" s="1">
+        <v>19</v>
+      </c>
+      <c r="AD16" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AD16" s="5">
+      <c r="AE16" s="1">
         <f t="shared" si="7"/>
-        <v>90</v>
-      </c>
-      <c r="AE16" s="1">
+        <v>35</v>
+      </c>
+      <c r="AF16" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF16" s="1">
+        <v>55</v>
+      </c>
+      <c r="AG16" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG16" s="1">
+      <c r="AH16" s="1">
         <f t="shared" si="10"/>
-        <v>75</v>
-      </c>
-      <c r="AH16" s="1">
+        <v>65</v>
+      </c>
+      <c r="AI16" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AI16" s="1">
+      <c r="AJ16" s="1">
         <f t="shared" si="12"/>
-        <v>81</v>
-      </c>
-      <c r="AJ16" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK16" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AK16" s="1">
+      <c r="AL16" s="1">
         <f t="shared" si="14"/>
-        <v>18</v>
-      </c>
-      <c r="AL16" s="1">
+        <v>92</v>
+      </c>
+      <c r="AM16" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AM16" s="1">
+        <v>46</v>
+      </c>
+      <c r="AN16" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AN16" s="1">
+        <v>61</v>
+      </c>
+      <c r="AO16" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO16" s="1">
+        <v>29</v>
+      </c>
+      <c r="AP16" s="5">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AP16" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
@@ -2841,84 +2836,84 @@
         <v>76</v>
       </c>
       <c r="W17" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
         <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
-      <c r="X17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="Y17" s="1">
+        <v>47</v>
+      </c>
+      <c r="Z17" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="AA17" s="1">
         <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-      <c r="AA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="AB17" s="1">
+        <v>94</v>
+      </c>
+      <c r="AC17" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC17" s="1">
+        <v>50</v>
+      </c>
+      <c r="AD17" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD17" s="5">
+        <v>92</v>
+      </c>
+      <c r="AE17" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AE17" s="1">
+      <c r="AF17" s="1">
         <f t="shared" si="8"/>
-        <v>27</v>
-      </c>
-      <c r="AF17" s="1">
+        <v>37</v>
+      </c>
+      <c r="AG17" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG17" s="1">
+        <v>35</v>
+      </c>
+      <c r="AH17" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AH17" s="1">
+      <c r="AI17" s="1">
         <f t="shared" si="11"/>
-        <v>63</v>
-      </c>
-      <c r="AI17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="1">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="AJ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="1">
         <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="AK17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="1">
         <f t="shared" si="14"/>
-        <v>27</v>
-      </c>
-      <c r="AL17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="1">
         <f t="shared" si="15"/>
-        <v>87</v>
-      </c>
-      <c r="AM17" s="1">
+        <v>46</v>
+      </c>
+      <c r="AN17" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AN17" s="1">
+        <v>70</v>
+      </c>
+      <c r="AO17" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO17" s="1">
+        <v>77</v>
+      </c>
+      <c r="AP17" s="5">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AP17" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
@@ -2983,84 +2978,84 @@
         <v>32</v>
       </c>
       <c r="W18" s="8">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="X18" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X18" s="1">
+      <c r="Y18" s="1">
         <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="Y18" s="1">
+        <v>76</v>
+      </c>
+      <c r="Z18" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="1">
+        <v>13</v>
+      </c>
+      <c r="AA18" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AB18" s="1">
         <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="AB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="1">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AC18" s="1">
+        <v>92</v>
+      </c>
+      <c r="AD18" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD18" s="5">
+        <v>88</v>
+      </c>
+      <c r="AE18" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AE18" s="1">
+      <c r="AF18" s="1">
         <f t="shared" si="8"/>
-        <v>99</v>
-      </c>
-      <c r="AF18" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG18" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG18" s="1">
+        <v>71</v>
+      </c>
+      <c r="AH18" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH18" s="1">
+        <v>85</v>
+      </c>
+      <c r="AI18" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI18" s="1">
+        <v>31</v>
+      </c>
+      <c r="AJ18" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AJ18" s="1">
+      <c r="AK18" s="1">
         <f t="shared" si="13"/>
-        <v>39</v>
-      </c>
-      <c r="AK18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="1">
         <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="AL18" s="1">
+        <v>73</v>
+      </c>
+      <c r="AM18" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AM18" s="1">
+        <v>58</v>
+      </c>
+      <c r="AN18" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AN18" s="1">
+        <v>98</v>
+      </c>
+      <c r="AO18" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO18" s="1">
+        <v>41</v>
+      </c>
+      <c r="AP18" s="5">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AP18" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
@@ -3125,84 +3120,84 @@
         <v>33</v>
       </c>
       <c r="W19" s="8">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="X19" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X19" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y19" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z19" s="1">
+        <v>97</v>
+      </c>
+      <c r="AA19" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AB19" s="1">
         <f t="shared" si="4"/>
-        <v>84</v>
-      </c>
-      <c r="AB19" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC19" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC19" s="1">
+        <v>37</v>
+      </c>
+      <c r="AD19" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD19" s="5">
+        <v>43</v>
+      </c>
+      <c r="AE19" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="1">
+      <c r="AF19" s="1">
         <f t="shared" si="8"/>
-        <v>99</v>
-      </c>
-      <c r="AF19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG19" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG19" s="1">
+      <c r="AH19" s="1">
         <f t="shared" si="10"/>
-        <v>72</v>
-      </c>
-      <c r="AH19" s="1">
+        <v>37</v>
+      </c>
+      <c r="AI19" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI19" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ19" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="1">
+        <v>26</v>
+      </c>
+      <c r="AK19" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AK19" s="1">
+      <c r="AL19" s="1">
         <f t="shared" si="14"/>
-        <v>66</v>
-      </c>
-      <c r="AL19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="1">
         <f t="shared" si="15"/>
-        <v>84</v>
-      </c>
-      <c r="AM19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="1">
         <f t="shared" si="16"/>
-        <v>45</v>
-      </c>
-      <c r="AN19" s="1">
+        <v>37</v>
+      </c>
+      <c r="AO19" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO19" s="1">
+        <v>11</v>
+      </c>
+      <c r="AP19" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
-      </c>
-      <c r="AP19" s="5">
-        <f>IF(MOD(T19,3)=0,T19,0)</f>
-        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3267,1318 +3262,1319 @@
         <v>43</v>
       </c>
       <c r="W20" s="9">
+        <f t="shared" si="19"/>
+        <v>56</v>
+      </c>
+      <c r="X20" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X20" s="2">
+      <c r="Y20" s="2">
         <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="Y20" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z20" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="2">
+        <v>68</v>
+      </c>
+      <c r="AA20" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB20" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB20" s="2">
+      <c r="AC20" s="2">
         <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-      <c r="AC20" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD20" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD20" s="6">
+        <v>85</v>
+      </c>
+      <c r="AE20" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="2">
+      <c r="AF20" s="2">
         <f t="shared" si="8"/>
-        <v>54</v>
-      </c>
-      <c r="AF20" s="2">
+        <v>16</v>
+      </c>
+      <c r="AG20" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG20" s="2">
+        <v>16</v>
+      </c>
+      <c r="AH20" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH20" s="2">
+        <v>19</v>
+      </c>
+      <c r="AI20" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI20" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ20" s="2">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AJ20" s="2">
+      <c r="AK20" s="2">
         <f t="shared" si="13"/>
-        <v>51</v>
-      </c>
-      <c r="AK20" s="2">
+        <v>23</v>
+      </c>
+      <c r="AL20" s="2">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AL20" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM20" s="2">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AM20" s="2">
+        <v>86</v>
+      </c>
+      <c r="AN20" s="2">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AN20" s="2">
+        <v>47</v>
+      </c>
+      <c r="AO20" s="2">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AO20" s="2">
+        <v>13</v>
+      </c>
+      <c r="AP20" s="6">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AP20" s="6">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:42" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:42" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
-        <f>MIN(B22,A23)+A1</f>
-        <v>1007</v>
+        <f t="shared" ref="A22:C22" si="20">MIN(B22,A23)+W1</f>
+        <v>663</v>
       </c>
       <c r="B22" s="3">
-        <f>MIN(C22,B23)+B1</f>
-        <v>919</v>
+        <f t="shared" si="20"/>
+        <v>575</v>
       </c>
       <c r="C22" s="3">
-        <f>MIN(D22,C23)+C1</f>
-        <v>931</v>
+        <f t="shared" si="20"/>
+        <v>564</v>
       </c>
       <c r="D22" s="13">
-        <f t="shared" ref="D22:D25" si="20">D23+Z1</f>
-        <v>915</v>
+        <f t="shared" ref="D22:D25" si="21">D23+Z1</f>
+        <v>683</v>
       </c>
       <c r="E22" s="16">
-        <f>MIN(F22,E23)+E1</f>
-        <v>891</v>
+        <f t="shared" ref="E22:H22" si="22">MIN(F22,E23)+AA1</f>
+        <v>523</v>
       </c>
       <c r="F22" s="3">
-        <f>MIN(G22,F23)+F1</f>
-        <v>818</v>
+        <f t="shared" si="22"/>
+        <v>551</v>
       </c>
       <c r="G22" s="3">
-        <f>MIN(H22,G23)+G1</f>
-        <v>731</v>
+        <f t="shared" si="22"/>
+        <v>551</v>
       </c>
       <c r="H22" s="3">
-        <f>MIN(I22,H23)+H1</f>
-        <v>695</v>
+        <f t="shared" si="22"/>
+        <v>585</v>
       </c>
       <c r="I22" s="3">
-        <f>MIN(J22,I23)+I1</f>
-        <v>657</v>
+        <f t="shared" ref="I22:S22" si="23">MIN(J22,I23)+AE1</f>
+        <v>553</v>
       </c>
       <c r="J22" s="3">
-        <f>MIN(K22,J23)+J1</f>
-        <v>584</v>
+        <f t="shared" si="23"/>
+        <v>542</v>
       </c>
       <c r="K22" s="3">
-        <f>MIN(L22,K23)+K1</f>
-        <v>649</v>
+        <f t="shared" si="23"/>
+        <v>607</v>
       </c>
       <c r="L22" s="3">
-        <f>MIN(M22,L23)+L1</f>
-        <v>570</v>
+        <f t="shared" si="23"/>
+        <v>609</v>
       </c>
       <c r="M22" s="3">
-        <f>MIN(N22,M23)+M1</f>
-        <v>498</v>
+        <f t="shared" si="23"/>
+        <v>565</v>
       </c>
       <c r="N22" s="3">
-        <f>MIN(O22,N23)+N1</f>
-        <v>452</v>
+        <f t="shared" si="23"/>
+        <v>552</v>
       </c>
       <c r="O22" s="3">
-        <f>MIN(P22,O23)+O1</f>
-        <v>450</v>
+        <f t="shared" si="23"/>
+        <v>617</v>
       </c>
       <c r="P22" s="3">
-        <f>MIN(Q22,P23)+P1</f>
-        <v>458</v>
+        <f t="shared" si="23"/>
+        <v>625</v>
       </c>
       <c r="Q22" s="3">
-        <f>MIN(R22,Q23)+Q1</f>
-        <v>404</v>
+        <f t="shared" si="23"/>
+        <v>611</v>
       </c>
       <c r="R22" s="3">
-        <f>MIN(S22,R23)+R1</f>
-        <v>316</v>
+        <f t="shared" si="23"/>
+        <v>523</v>
       </c>
       <c r="S22" s="3">
-        <f>MIN(T22,S23)+S1</f>
-        <v>345</v>
+        <f t="shared" si="23"/>
+        <v>488</v>
       </c>
       <c r="T22" s="13">
-        <f t="shared" ref="T22:T39" si="21">T23+AP1</f>
-        <v>331</v>
+        <f t="shared" ref="T22:T39" si="24">T23+AP1</f>
+        <v>774</v>
       </c>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
-        <f>MIN(B23,A24)+A2</f>
-        <v>969</v>
+        <f t="shared" ref="A23:C23" si="25">MIN(B23,A24)+W2</f>
+        <v>621</v>
       </c>
       <c r="B23" s="1">
-        <f>MIN(C23,B24)+B2</f>
-        <v>908</v>
+        <f t="shared" si="25"/>
+        <v>580</v>
       </c>
       <c r="C23" s="1">
-        <f>MIN(D23,C24)+C2</f>
-        <v>892</v>
+        <f t="shared" si="25"/>
+        <v>564</v>
       </c>
       <c r="D23" s="13">
-        <f t="shared" si="20"/>
-        <v>852</v>
+        <f t="shared" si="21"/>
+        <v>683</v>
       </c>
       <c r="E23" s="1">
-        <f>MIN(F23,E24)+E2</f>
-        <v>814</v>
+        <f t="shared" ref="E23:H23" si="26">MIN(F23,E24)+AA2</f>
+        <v>446</v>
       </c>
       <c r="F23" s="1">
-        <f>MIN(G23,F24)+F2</f>
-        <v>808</v>
+        <f t="shared" si="26"/>
+        <v>579</v>
       </c>
       <c r="G23" s="1">
-        <f>MIN(H23,G24)+G2</f>
-        <v>719</v>
+        <f t="shared" si="26"/>
+        <v>551</v>
       </c>
       <c r="H23" s="1">
-        <f>MIN(I23,H24)+H2</f>
-        <v>715</v>
+        <f t="shared" si="26"/>
+        <v>547</v>
       </c>
       <c r="I23" s="1">
-        <f>MIN(J23,I24)+I2</f>
-        <v>648</v>
+        <f t="shared" ref="I23:S23" si="27">MIN(J23,I24)+AE2</f>
+        <v>480</v>
       </c>
       <c r="J23" s="1">
-        <f>MIN(K23,J24)+J2</f>
-        <v>573</v>
+        <f t="shared" si="27"/>
+        <v>531</v>
       </c>
       <c r="K23" s="1">
-        <f>MIN(L23,K24)+K2</f>
-        <v>569</v>
+        <f t="shared" si="27"/>
+        <v>527</v>
       </c>
       <c r="L23" s="1">
-        <f>MIN(M23,L24)+L2</f>
+        <f t="shared" si="27"/>
+        <v>527</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="27"/>
+        <v>519</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="27"/>
+        <v>550</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="27"/>
+        <v>550</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="27"/>
+        <v>525</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="27"/>
+        <v>525</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="27"/>
+        <v>490</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="27"/>
         <v>488</v>
       </c>
-      <c r="M23" s="1">
-        <f>MIN(N23,M24)+M2</f>
-        <v>480</v>
-      </c>
-      <c r="N23" s="1">
-        <f>MIN(O23,N24)+N2</f>
-        <v>470</v>
-      </c>
-      <c r="O23" s="1">
-        <f>MIN(P23,O24)+O2</f>
-        <v>383</v>
-      </c>
-      <c r="P23" s="1">
-        <f>MIN(Q23,P24)+P2</f>
-        <v>358</v>
-      </c>
-      <c r="Q23" s="1">
-        <f>MIN(R23,Q24)+Q2</f>
-        <v>316</v>
-      </c>
-      <c r="R23" s="1">
-        <f>MIN(S23,R24)+R2</f>
-        <v>281</v>
-      </c>
-      <c r="S23" s="1">
-        <f>MIN(T23,S24)+S2</f>
-        <v>279</v>
-      </c>
       <c r="T23" s="13">
-        <f t="shared" si="21"/>
-        <v>268</v>
+        <f t="shared" si="24"/>
+        <v>774</v>
       </c>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
-        <f>MIN(B24,A25)+A3</f>
-        <v>1011</v>
+        <f t="shared" ref="A24:C24" si="28">MIN(B24,A25)+W3</f>
+        <v>560</v>
       </c>
       <c r="B24" s="1">
-        <f>MIN(C24,B25)+B3</f>
-        <v>977</v>
+        <f t="shared" si="28"/>
+        <v>577</v>
       </c>
       <c r="C24" s="1">
-        <f>MIN(D24,C25)+C3</f>
-        <v>924</v>
+        <f t="shared" si="28"/>
+        <v>524</v>
       </c>
       <c r="D24" s="13">
-        <f t="shared" si="20"/>
-        <v>852</v>
+        <f t="shared" si="21"/>
+        <v>603</v>
       </c>
       <c r="E24" s="1">
-        <f>MIN(F24,E25)+E3</f>
-        <v>909</v>
+        <f t="shared" ref="E24:H24" si="29">MIN(F24,E25)+AA3</f>
+        <v>446</v>
       </c>
       <c r="F24" s="1">
-        <f>MIN(G24,F25)+F3</f>
-        <v>962</v>
+        <f t="shared" si="29"/>
+        <v>490</v>
       </c>
       <c r="G24" s="1">
-        <f>MIN(H24,G25)+G3</f>
-        <v>922</v>
+        <f t="shared" si="29"/>
+        <v>558</v>
       </c>
       <c r="H24" s="1">
-        <f>MIN(I24,H25)+H3</f>
-        <v>863</v>
+        <f t="shared" si="29"/>
+        <v>499</v>
       </c>
       <c r="I24" s="1">
-        <f>MIN(J24,I25)+I3</f>
-        <v>838</v>
+        <f t="shared" ref="I24:S24" si="30">MIN(J24,I25)+AE3</f>
+        <v>480</v>
       </c>
       <c r="J24" s="1">
-        <f>MIN(K24,J25)+J3</f>
-        <v>773</v>
+        <f t="shared" si="30"/>
+        <v>634</v>
       </c>
       <c r="K24" s="1">
-        <f>MIN(L24,K25)+K3</f>
-        <v>693</v>
+        <f t="shared" si="30"/>
+        <v>554</v>
       </c>
       <c r="L24" s="1">
-        <f>MIN(M24,L25)+L3</f>
-        <v>649</v>
+        <f t="shared" si="30"/>
+        <v>582</v>
       </c>
       <c r="M24" s="1">
-        <f>MIN(N24,M25)+M3</f>
-        <v>576</v>
+        <f t="shared" si="30"/>
+        <v>509</v>
       </c>
       <c r="N24" s="1">
-        <f>MIN(O24,N25)+N3</f>
-        <v>636</v>
+        <f t="shared" si="30"/>
+        <v>668</v>
       </c>
       <c r="O24" s="1">
-        <f>MIN(P24,O25)+O3</f>
-        <v>557</v>
+        <f t="shared" si="30"/>
+        <v>589</v>
       </c>
       <c r="P24" s="1">
-        <f>MIN(Q24,P25)+P3</f>
-        <v>458</v>
+        <f t="shared" si="30"/>
+        <v>589</v>
       </c>
       <c r="Q24" s="1">
-        <f>MIN(R24,Q25)+Q3</f>
-        <v>430</v>
+        <f t="shared" si="30"/>
+        <v>561</v>
       </c>
       <c r="R24" s="1">
-        <f>MIN(S24,R25)+R3</f>
-        <v>398</v>
+        <f t="shared" si="30"/>
+        <v>529</v>
       </c>
       <c r="S24" s="1">
-        <f>MIN(T24,S25)+S3</f>
-        <v>346</v>
+        <f t="shared" si="30"/>
+        <v>477</v>
       </c>
       <c r="T24" s="13">
-        <f t="shared" si="21"/>
-        <v>268</v>
+        <f t="shared" si="24"/>
+        <v>689</v>
       </c>
     </row>
     <row r="25" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
-        <f>MIN(B25,A26)+A4</f>
-        <v>1060</v>
+        <f t="shared" ref="A25:C25" si="31">MIN(B25,A26)+W4</f>
+        <v>526</v>
       </c>
       <c r="B25" s="1">
-        <f>MIN(C25,B26)+B4</f>
-        <v>982</v>
+        <f t="shared" si="31"/>
+        <v>526</v>
       </c>
       <c r="C25" s="1">
-        <f>MIN(D25,C26)+C4</f>
-        <v>946</v>
+        <f t="shared" si="31"/>
+        <v>524</v>
       </c>
       <c r="D25" s="13">
-        <f t="shared" si="20"/>
-        <v>852</v>
+        <f t="shared" si="21"/>
+        <v>523</v>
       </c>
       <c r="E25" s="1">
-        <f>MIN(F25,E26)+E4</f>
-        <v>897</v>
+        <f t="shared" ref="E25:H25" si="32">MIN(F25,E26)+AA4</f>
+        <v>446</v>
       </c>
       <c r="F25" s="1">
-        <f>MIN(G25,F26)+F4</f>
-        <v>918</v>
+        <f t="shared" si="32"/>
+        <v>446</v>
       </c>
       <c r="G25" s="1">
-        <f>MIN(H25,G26)+G4</f>
-        <v>914</v>
+        <f t="shared" si="32"/>
+        <v>526</v>
       </c>
       <c r="H25" s="1">
-        <f>MIN(I25,H26)+H4</f>
-        <v>862</v>
+        <f t="shared" si="32"/>
+        <v>474</v>
       </c>
       <c r="I25" s="1">
-        <f>MIN(J25,I26)+I4</f>
-        <v>803</v>
+        <f t="shared" ref="I25:M25" si="33">MIN(J25,I26)+AE4</f>
+        <v>415</v>
       </c>
       <c r="J25" s="1">
-        <f>MIN(K25,J26)+J4</f>
-        <v>728</v>
+        <f t="shared" si="33"/>
+        <v>583</v>
       </c>
       <c r="K25" s="1">
-        <f>MIN(L25,K26)+K4</f>
-        <v>655</v>
+        <f t="shared" si="33"/>
+        <v>510</v>
       </c>
       <c r="L25" s="1">
-        <f>MIN(M25,L26)+L4</f>
-        <v>651</v>
+        <f t="shared" si="33"/>
+        <v>584</v>
       </c>
       <c r="M25" s="1">
-        <f>MIN(N25,M26)+M4</f>
-        <v>569</v>
+        <f t="shared" si="33"/>
+        <v>502</v>
       </c>
       <c r="N25" s="11">
-        <f t="shared" ref="N25:R25" si="22">O25+N4</f>
-        <v>560</v>
+        <f t="shared" ref="N25:R25" si="34">O25+AJ4</f>
+        <v>643</v>
       </c>
       <c r="O25" s="11">
-        <f t="shared" si="22"/>
-        <v>491</v>
+        <f t="shared" si="34"/>
+        <v>643</v>
       </c>
       <c r="P25" s="11">
-        <f t="shared" si="22"/>
-        <v>448</v>
+        <f t="shared" si="34"/>
+        <v>600</v>
       </c>
       <c r="Q25" s="11">
-        <f t="shared" si="22"/>
-        <v>442</v>
+        <f t="shared" si="34"/>
+        <v>600</v>
       </c>
       <c r="R25" s="11">
-        <f t="shared" si="22"/>
-        <v>383</v>
+        <f t="shared" si="34"/>
+        <v>541</v>
       </c>
       <c r="S25" s="1">
-        <f>MIN(T25,S26)+S4</f>
-        <v>319</v>
+        <f>MIN(T25,S26)+AO4</f>
+        <v>477</v>
       </c>
       <c r="T25" s="13">
-        <f t="shared" si="21"/>
-        <v>268</v>
+        <f t="shared" si="24"/>
+        <v>633</v>
       </c>
     </row>
     <row r="26" spans="1:42" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
-        <f>MIN(B26,A27)+A5</f>
-        <v>989</v>
+        <f t="shared" ref="A26:D26" si="35">MIN(B26,A27)+W5</f>
+        <v>547</v>
       </c>
       <c r="B26" s="1">
-        <f>MIN(C26,B27)+B5</f>
-        <v>923</v>
+        <f t="shared" si="35"/>
+        <v>467</v>
       </c>
       <c r="C26" s="1">
-        <f>MIN(D26,C27)+C5</f>
-        <v>906</v>
+        <f t="shared" si="35"/>
+        <v>430</v>
       </c>
       <c r="D26" s="1">
-        <f>MIN(E26,D27)+D5</f>
-        <v>852</v>
+        <f t="shared" si="35"/>
+        <v>446</v>
       </c>
       <c r="E26" s="1">
-        <f>MIN(F26,E27)+E5</f>
-        <v>867</v>
+        <f t="shared" ref="E26:H26" si="36">MIN(F26,E27)+AA5</f>
+        <v>459</v>
       </c>
       <c r="F26" s="1">
-        <f>MIN(G26,F27)+F5</f>
-        <v>872</v>
+        <f t="shared" si="36"/>
+        <v>400</v>
       </c>
       <c r="G26" s="1">
-        <f>MIN(H26,G27)+G5</f>
-        <v>862</v>
+        <f t="shared" si="36"/>
+        <v>478</v>
       </c>
       <c r="H26" s="1">
-        <f>MIN(I26,H27)+H5</f>
-        <v>831</v>
+        <f t="shared" si="36"/>
+        <v>415</v>
       </c>
       <c r="I26" s="1">
-        <f>MIN(J26,I27)+I5</f>
-        <v>756</v>
+        <f t="shared" ref="I26:L26" si="37">MIN(J26,I27)+AE5</f>
+        <v>415</v>
       </c>
       <c r="J26" s="1">
-        <f>MIN(K26,J27)+J5</f>
-        <v>687</v>
+        <f t="shared" si="37"/>
+        <v>602</v>
       </c>
       <c r="K26" s="1">
-        <f>MIN(L26,K27)+K5</f>
-        <v>595</v>
+        <f t="shared" si="37"/>
+        <v>510</v>
       </c>
       <c r="L26" s="1">
-        <f>MIN(M26,L27)+L5</f>
-        <v>587</v>
+        <f t="shared" si="37"/>
+        <v>572</v>
       </c>
       <c r="M26" s="13">
-        <f t="shared" ref="M26:M33" si="23">M27+AI5</f>
-        <v>582</v>
+        <f t="shared" ref="M26:M33" si="38">M27+AI5</f>
+        <v>502</v>
       </c>
       <c r="N26" s="14">
-        <f>MIN(O26,N27)+N5</f>
-        <v>453</v>
+        <f t="shared" ref="N26:S26" si="39">MIN(O26,N27)+AJ5</f>
+        <v>317</v>
       </c>
       <c r="O26" s="1">
-        <f>MIN(P26,O27)+O5</f>
-        <v>409</v>
+        <f t="shared" si="39"/>
+        <v>291</v>
       </c>
       <c r="P26" s="1">
-        <f>MIN(Q26,P27)+P5</f>
-        <v>360</v>
+        <f t="shared" si="39"/>
+        <v>466</v>
       </c>
       <c r="Q26" s="1">
-        <f>MIN(R26,Q27)+Q5</f>
-        <v>392</v>
+        <f t="shared" si="39"/>
+        <v>498</v>
       </c>
       <c r="R26" s="1">
-        <f>MIN(S26,R27)+R5</f>
-        <v>324</v>
+        <f t="shared" si="39"/>
+        <v>449</v>
       </c>
       <c r="S26" s="1">
-        <f>MIN(T26,S27)+S5</f>
-        <v>278</v>
+        <f t="shared" si="39"/>
+        <v>477</v>
       </c>
       <c r="T26" s="13">
-        <f t="shared" si="21"/>
-        <v>268</v>
+        <f t="shared" si="24"/>
+        <v>578</v>
       </c>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
-        <f>MIN(B27,A28)+A6</f>
-        <v>909</v>
+        <f t="shared" ref="A27:D27" si="40">MIN(B27,A28)+W6</f>
+        <v>467</v>
       </c>
       <c r="B27" s="1">
-        <f>MIN(C27,B28)+B6</f>
-        <v>886</v>
+        <f t="shared" si="40"/>
+        <v>444</v>
       </c>
       <c r="C27" s="1">
-        <f>MIN(D27,C28)+C6</f>
-        <v>872</v>
+        <f t="shared" si="40"/>
+        <v>430</v>
       </c>
       <c r="D27" s="1">
-        <f>MIN(E27,D28)+D6</f>
-        <v>836</v>
+        <f t="shared" si="40"/>
+        <v>430</v>
       </c>
       <c r="E27" s="1">
-        <f>MIN(F27,E28)+E6</f>
-        <v>808</v>
+        <f t="shared" ref="E27:H27" si="41">MIN(F27,E28)+AA6</f>
+        <v>402</v>
       </c>
       <c r="F27" s="1">
-        <f>MIN(G27,F28)+F6</f>
-        <v>806</v>
+        <f t="shared" si="41"/>
+        <v>400</v>
       </c>
       <c r="G27" s="1">
-        <f>MIN(H27,G28)+G6</f>
-        <v>783</v>
+        <f t="shared" si="41"/>
+        <v>399</v>
       </c>
       <c r="H27" s="1">
-        <f>MIN(I27,H28)+H6</f>
-        <v>761</v>
+        <f t="shared" si="41"/>
+        <v>429</v>
       </c>
       <c r="I27" s="1">
-        <f>MIN(J27,I28)+I6</f>
-        <v>702</v>
+        <f t="shared" ref="I27:L27" si="42">MIN(J27,I28)+AE6</f>
+        <v>415</v>
       </c>
       <c r="J27" s="1">
-        <f>MIN(K27,J28)+J6</f>
-        <v>656</v>
+        <f t="shared" si="42"/>
+        <v>549</v>
       </c>
       <c r="K27" s="1">
-        <f>MIN(L27,K28)+K6</f>
-        <v>589</v>
+        <f t="shared" si="42"/>
+        <v>502</v>
       </c>
       <c r="L27" s="1">
-        <f>MIN(M27,L28)+L6</f>
-        <v>517</v>
+        <f t="shared" si="42"/>
+        <v>521</v>
       </c>
       <c r="M27" s="13">
-        <f t="shared" si="23"/>
-        <v>498</v>
+        <f t="shared" si="38"/>
+        <v>502</v>
       </c>
       <c r="N27" s="1">
-        <f>MIN(O27,N28)+N6</f>
-        <v>380</v>
+        <f t="shared" ref="N27:S27" si="43">MIN(O27,N28)+AJ6</f>
+        <v>244</v>
       </c>
       <c r="O27" s="1">
-        <f>MIN(P27,O28)+O6</f>
-        <v>349</v>
+        <f t="shared" si="43"/>
+        <v>291</v>
       </c>
       <c r="P27" s="1">
-        <f>MIN(Q27,P28)+P6</f>
-        <v>335</v>
+        <f t="shared" si="43"/>
+        <v>441</v>
       </c>
       <c r="Q27" s="1">
-        <f>MIN(R27,Q28)+Q6</f>
-        <v>301</v>
+        <f t="shared" si="43"/>
+        <v>407</v>
       </c>
       <c r="R27" s="1">
-        <f>MIN(S27,R28)+R6</f>
-        <v>297</v>
+        <f t="shared" si="43"/>
+        <v>403</v>
       </c>
       <c r="S27" s="1">
-        <f>MIN(T27,S28)+S6</f>
-        <v>204</v>
+        <f t="shared" si="43"/>
+        <v>403</v>
       </c>
       <c r="T27" s="13">
-        <f t="shared" si="21"/>
-        <v>175</v>
+        <f t="shared" si="24"/>
+        <v>578</v>
       </c>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
-        <f>MIN(B28,A29)+A7</f>
-        <v>1017</v>
+        <f t="shared" ref="A28:D28" si="44">MIN(B28,A29)+W7</f>
+        <v>489</v>
       </c>
       <c r="B28" s="1">
-        <f>MIN(C28,B29)+B7</f>
-        <v>998</v>
+        <f t="shared" si="44"/>
+        <v>470</v>
       </c>
       <c r="C28" s="1">
-        <f>MIN(D28,C29)+C7</f>
-        <v>978</v>
+        <f t="shared" si="44"/>
+        <v>445</v>
       </c>
       <c r="D28" s="1">
-        <f>MIN(E28,D29)+D7</f>
-        <v>929</v>
+        <f t="shared" si="44"/>
+        <v>445</v>
       </c>
       <c r="E28" s="1">
-        <f>MIN(F28,E29)+E7</f>
-        <v>884</v>
+        <f t="shared" ref="E28:H28" si="45">MIN(F28,E29)+AA7</f>
+        <v>445</v>
       </c>
       <c r="F28" s="1">
-        <f>MIN(G28,F29)+F7</f>
-        <v>816</v>
+        <f t="shared" si="45"/>
+        <v>377</v>
       </c>
       <c r="G28" s="1">
-        <f>MIN(H28,G29)+G7</f>
-        <v>789</v>
+        <f t="shared" si="45"/>
+        <v>377</v>
       </c>
       <c r="H28" s="1">
-        <f>MIN(I28,H29)+H7</f>
-        <v>760</v>
+        <f t="shared" si="45"/>
+        <v>370</v>
       </c>
       <c r="I28" s="1">
-        <f>MIN(J28,I29)+I7</f>
-        <v>731</v>
+        <f t="shared" ref="I28:L28" si="46">MIN(J28,I29)+AE7</f>
+        <v>369</v>
       </c>
       <c r="J28" s="1">
-        <f>MIN(K28,J29)+J7</f>
-        <v>710</v>
+        <f t="shared" si="46"/>
+        <v>482</v>
       </c>
       <c r="K28" s="1">
-        <f>MIN(L28,K29)+K7</f>
-        <v>640</v>
+        <f t="shared" si="46"/>
+        <v>502</v>
       </c>
       <c r="L28" s="1">
-        <f>MIN(M28,L29)+L7</f>
-        <v>550</v>
+        <f t="shared" si="46"/>
+        <v>502</v>
       </c>
       <c r="M28" s="13">
-        <f t="shared" si="23"/>
-        <v>498</v>
+        <f t="shared" si="38"/>
+        <v>450</v>
       </c>
       <c r="N28" s="1">
-        <f>MIN(O28,N29)+N7</f>
-        <v>388</v>
+        <f t="shared" ref="N28:S28" si="47">MIN(O28,N29)+AJ7</f>
+        <v>213</v>
       </c>
       <c r="O28" s="1">
-        <f>MIN(P28,O29)+O7</f>
-        <v>384</v>
+        <f t="shared" si="47"/>
+        <v>277</v>
       </c>
       <c r="P28" s="1">
-        <f>MIN(Q28,P29)+P7</f>
-        <v>407</v>
+        <f t="shared" si="47"/>
+        <v>458</v>
       </c>
       <c r="Q28" s="1">
-        <f>MIN(R28,Q29)+Q7</f>
-        <v>361</v>
+        <f t="shared" si="47"/>
+        <v>412</v>
       </c>
       <c r="R28" s="1">
-        <f>MIN(S28,R29)+R7</f>
-        <v>262</v>
+        <f t="shared" si="47"/>
+        <v>414</v>
       </c>
       <c r="S28" s="1">
-        <f>MIN(T28,S29)+S7</f>
-        <v>256</v>
+        <f t="shared" si="47"/>
+        <v>374</v>
       </c>
       <c r="T28" s="13">
-        <f t="shared" si="21"/>
-        <v>175</v>
+        <f t="shared" si="24"/>
+        <v>558</v>
       </c>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
-        <f>MIN(B29,A30)+A8</f>
-        <v>1034</v>
+        <f t="shared" ref="A29:D29" si="48">MIN(B29,A30)+W8</f>
+        <v>534</v>
       </c>
       <c r="B29" s="1">
-        <f>MIN(C29,B30)+B8</f>
-        <v>973</v>
+        <f t="shared" si="48"/>
+        <v>557</v>
       </c>
       <c r="C29" s="1">
-        <f>MIN(D29,C30)+C8</f>
-        <v>921</v>
+        <f t="shared" si="48"/>
+        <v>505</v>
       </c>
       <c r="D29" s="1">
-        <f>MIN(E29,D30)+D8</f>
-        <v>899</v>
+        <f t="shared" si="48"/>
+        <v>483</v>
       </c>
       <c r="E29" s="1">
-        <f>MIN(F29,E30)+E8</f>
-        <v>862</v>
+        <f t="shared" ref="E29:H29" si="49">MIN(F29,E30)+AA8</f>
+        <v>446</v>
       </c>
       <c r="F29" s="1">
-        <f>MIN(G29,F30)+F8</f>
-        <v>831</v>
+        <f t="shared" si="49"/>
+        <v>415</v>
       </c>
       <c r="G29" s="1">
-        <f>MIN(H29,G30)+G8</f>
-        <v>764</v>
+        <f t="shared" si="49"/>
+        <v>348</v>
       </c>
       <c r="H29" s="1">
-        <f>MIN(I29,H30)+H8</f>
-        <v>757</v>
+        <f t="shared" si="49"/>
+        <v>341</v>
       </c>
       <c r="I29" s="1">
-        <f>MIN(J29,I30)+I8</f>
-        <v>703</v>
+        <f t="shared" ref="I29:L29" si="50">MIN(J29,I30)+AE8</f>
+        <v>341</v>
       </c>
       <c r="J29" s="1">
-        <f>MIN(K29,J30)+J8</f>
-        <v>715</v>
+        <f t="shared" si="50"/>
+        <v>412</v>
       </c>
       <c r="K29" s="1">
-        <f>MIN(L29,K30)+K8</f>
-        <v>644</v>
+        <f t="shared" si="50"/>
+        <v>515</v>
       </c>
       <c r="L29" s="1">
-        <f>MIN(M29,L30)+L8</f>
-        <v>545</v>
+        <f t="shared" si="50"/>
+        <v>515</v>
       </c>
       <c r="M29" s="13">
-        <f t="shared" si="23"/>
-        <v>480</v>
+        <f t="shared" si="38"/>
+        <v>450</v>
       </c>
       <c r="N29" s="1">
-        <f>MIN(O29,N30)+N8</f>
-        <v>393</v>
+        <f t="shared" ref="N29:S29" si="51">MIN(O29,N30)+AJ8</f>
+        <v>209</v>
       </c>
       <c r="O29" s="1">
-        <f>MIN(P29,O30)+O8</f>
-        <v>360</v>
+        <f t="shared" si="51"/>
+        <v>277</v>
       </c>
       <c r="P29" s="1">
-        <f>MIN(Q29,P30)+P8</f>
-        <v>372</v>
+        <f t="shared" si="51"/>
+        <v>457</v>
       </c>
       <c r="Q29" s="1">
-        <f>MIN(R29,Q30)+Q8</f>
-        <v>299</v>
+        <f t="shared" si="51"/>
+        <v>412</v>
       </c>
       <c r="R29" s="1">
-        <f>MIN(S29,R30)+R8</f>
-        <v>222</v>
+        <f t="shared" si="51"/>
+        <v>382</v>
       </c>
       <c r="S29" s="1">
-        <f>MIN(T29,S30)+S8</f>
-        <v>271</v>
+        <f t="shared" si="51"/>
+        <v>374</v>
       </c>
       <c r="T29" s="13">
-        <f t="shared" si="21"/>
-        <v>175</v>
+        <f t="shared" si="24"/>
+        <v>509</v>
       </c>
     </row>
     <row r="30" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
-        <f>MIN(B30,A31)+A9</f>
-        <v>935</v>
+        <f t="shared" ref="A30:A36" si="52">MIN(B30,A31)+W9</f>
+        <v>534</v>
       </c>
       <c r="B30" s="1">
-        <f>MIN(C30,B31)+B9</f>
-        <v>932</v>
+        <f>MIN(C30,B31)+X9</f>
+        <v>534</v>
       </c>
       <c r="C30" s="11">
-        <f t="shared" ref="C30:F30" si="24">D30+C9</f>
-        <v>1000</v>
+        <f t="shared" ref="C30:F30" si="53">D30+Y9</f>
+        <v>534</v>
       </c>
       <c r="D30" s="11">
+        <f t="shared" si="53"/>
+        <v>526</v>
+      </c>
+      <c r="E30" s="11">
+        <f t="shared" si="53"/>
+        <v>459</v>
+      </c>
+      <c r="F30" s="11">
+        <f t="shared" si="53"/>
+        <v>373</v>
+      </c>
+      <c r="G30" s="1">
+        <f>MIN(H30,G31)+AC9</f>
+        <v>373</v>
+      </c>
+      <c r="H30" s="1">
+        <f>MIN(I30,H31)+AD9</f>
+        <v>373</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" ref="I30:L30" si="54">MIN(J30,I31)+AE9</f>
+        <v>341</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="54"/>
+        <v>341</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="54"/>
+        <v>555</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="54"/>
+        <v>524</v>
+      </c>
+      <c r="M30" s="13">
+        <f t="shared" si="38"/>
+        <v>437</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" ref="N30:S30" si="55">MIN(O30,N31)+AJ9</f>
+        <v>209</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="55"/>
+        <v>215</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="55"/>
+        <v>381</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="55"/>
+        <v>335</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="55"/>
+        <v>374</v>
+      </c>
+      <c r="S30" s="1">
+        <f t="shared" si="55"/>
+        <v>374</v>
+      </c>
+      <c r="T30" s="13">
         <f t="shared" si="24"/>
-        <v>992</v>
-      </c>
-      <c r="E30" s="11">
-        <f t="shared" si="24"/>
-        <v>925</v>
-      </c>
-      <c r="F30" s="11">
-        <f t="shared" si="24"/>
-        <v>839</v>
-      </c>
-      <c r="G30" s="1">
-        <f>MIN(H30,G31)+G9</f>
-        <v>788</v>
-      </c>
-      <c r="H30" s="1">
-        <f>MIN(I30,H31)+H9</f>
-        <v>740</v>
-      </c>
-      <c r="I30" s="1">
-        <f>MIN(J30,I31)+I9</f>
-        <v>685</v>
-      </c>
-      <c r="J30" s="1">
-        <f>MIN(K30,J31)+J9</f>
-        <v>682</v>
-      </c>
-      <c r="K30" s="1">
-        <f>MIN(L30,K31)+K9</f>
-        <v>659</v>
-      </c>
-      <c r="L30" s="1">
-        <f>MIN(M30,L31)+L9</f>
-        <v>580</v>
-      </c>
-      <c r="M30" s="13">
-        <f t="shared" si="23"/>
-        <v>480</v>
-      </c>
-      <c r="N30" s="1">
-        <f>MIN(O30,N31)+N9</f>
-        <v>385</v>
-      </c>
-      <c r="O30" s="1">
-        <f>MIN(P30,O31)+O9</f>
-        <v>298</v>
-      </c>
-      <c r="P30" s="1">
-        <f>MIN(Q30,P31)+P9</f>
-        <v>296</v>
-      </c>
-      <c r="Q30" s="1">
-        <f>MIN(R30,Q31)+Q9</f>
-        <v>250</v>
-      </c>
-      <c r="R30" s="1">
-        <f>MIN(S30,R31)+R9</f>
-        <v>214</v>
-      </c>
-      <c r="S30" s="1">
-        <f>MIN(T30,S31)+S9</f>
-        <v>190</v>
-      </c>
-      <c r="T30" s="13">
-        <f t="shared" si="21"/>
-        <v>175</v>
+        <v>484</v>
       </c>
       <c r="V30">
         <f>MIN(I37,N26,C31,E22,A22)</f>
-        <v>453</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:42" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
-        <f>MIN(B31,A32)+A10</f>
-        <v>976</v>
+        <f t="shared" si="52"/>
+        <v>624</v>
       </c>
       <c r="B31" s="13">
-        <f t="shared" ref="B31:B35" si="25">B32+X10</f>
-        <v>923</v>
+        <f t="shared" ref="B31:B35" si="56">B32+X10</f>
+        <v>681</v>
       </c>
       <c r="C31" s="14">
-        <f>MIN(D31,C32)+C10</f>
-        <v>976</v>
+        <f t="shared" ref="C31:L31" si="57">MIN(D31,C32)+Y10</f>
+        <v>402</v>
       </c>
       <c r="D31" s="1">
-        <f>MIN(E31,D32)+D10</f>
-        <v>929</v>
+        <f t="shared" si="57"/>
+        <v>402</v>
       </c>
       <c r="E31" s="1">
-        <f>MIN(F31,E32)+E10</f>
-        <v>842</v>
+        <f t="shared" si="57"/>
+        <v>416</v>
       </c>
       <c r="F31" s="1">
-        <f>MIN(G31,F32)+F10</f>
-        <v>830</v>
+        <f t="shared" si="57"/>
+        <v>427</v>
       </c>
       <c r="G31" s="1">
-        <f>MIN(H31,G32)+G10</f>
-        <v>819</v>
+        <f t="shared" si="57"/>
+        <v>416</v>
       </c>
       <c r="H31" s="1">
-        <f>MIN(I31,H32)+H10</f>
-        <v>721</v>
+        <f t="shared" si="57"/>
+        <v>318</v>
       </c>
       <c r="I31" s="1">
-        <f>MIN(J31,I32)+I10</f>
-        <v>720</v>
+        <f t="shared" si="57"/>
+        <v>377</v>
       </c>
       <c r="J31" s="1">
-        <f>MIN(K31,J32)+J10</f>
-        <v>661</v>
+        <f t="shared" si="57"/>
+        <v>318</v>
       </c>
       <c r="K31" s="1">
-        <f>MIN(L31,K32)+K10</f>
-        <v>611</v>
+        <f t="shared" si="57"/>
+        <v>476</v>
       </c>
       <c r="L31" s="1">
-        <f>MIN(M31,L32)+L10</f>
-        <v>559</v>
+        <f t="shared" si="57"/>
+        <v>424</v>
       </c>
       <c r="M31" s="13">
-        <f t="shared" si="23"/>
-        <v>480</v>
+        <f t="shared" si="38"/>
+        <v>345</v>
       </c>
       <c r="N31" s="1">
-        <f>MIN(O31,N32)+N10</f>
-        <v>334</v>
+        <f t="shared" ref="N31:S31" si="58">MIN(O31,N32)+AJ10</f>
+        <v>209</v>
       </c>
       <c r="O31" s="1">
-        <f>MIN(P31,O32)+O10</f>
-        <v>323</v>
+        <f t="shared" si="58"/>
+        <v>213</v>
       </c>
       <c r="P31" s="1">
-        <f>MIN(Q31,P32)+P10</f>
-        <v>272</v>
+        <f t="shared" si="58"/>
+        <v>358</v>
       </c>
       <c r="Q31" s="1">
-        <f>MIN(R31,Q32)+Q10</f>
-        <v>249</v>
+        <f t="shared" si="58"/>
+        <v>335</v>
       </c>
       <c r="R31" s="1">
-        <f>MIN(S31,R32)+R10</f>
-        <v>248</v>
+        <f t="shared" si="58"/>
+        <v>429</v>
       </c>
       <c r="S31" s="1">
-        <f>MIN(T31,S32)+S10</f>
-        <v>193</v>
+        <f t="shared" si="58"/>
+        <v>374</v>
       </c>
       <c r="T31" s="13">
-        <f t="shared" si="21"/>
-        <v>157</v>
+        <f t="shared" si="24"/>
+        <v>484</v>
       </c>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
-        <f>MIN(B32,A33)+A11</f>
-        <v>1022</v>
+        <f t="shared" si="52"/>
+        <v>571</v>
       </c>
       <c r="B32" s="13">
-        <f t="shared" si="25"/>
-        <v>923</v>
+        <f t="shared" si="56"/>
+        <v>626</v>
       </c>
       <c r="C32" s="1">
-        <f>MIN(D32,C33)+C11</f>
-        <v>880</v>
+        <f t="shared" ref="C32:L32" si="59">MIN(D32,C33)+Y11</f>
+        <v>402</v>
       </c>
       <c r="D32" s="1">
-        <f>MIN(E32,D33)+D11</f>
-        <v>869</v>
+        <f t="shared" si="59"/>
+        <v>402</v>
       </c>
       <c r="E32" s="1">
-        <f>MIN(F32,E33)+E11</f>
-        <v>858</v>
+        <f t="shared" si="59"/>
+        <v>416</v>
       </c>
       <c r="F32" s="1">
-        <f>MIN(G32,F33)+F11</f>
-        <v>833</v>
+        <f t="shared" si="59"/>
+        <v>430</v>
       </c>
       <c r="G32" s="1">
-        <f>MIN(H32,G33)+G11</f>
-        <v>778</v>
+        <f t="shared" si="59"/>
+        <v>375</v>
       </c>
       <c r="H32" s="1">
-        <f>MIN(I32,H33)+H11</f>
-        <v>696</v>
+        <f t="shared" si="59"/>
+        <v>293</v>
       </c>
       <c r="I32" s="1">
-        <f>MIN(J32,I33)+I11</f>
-        <v>708</v>
+        <f t="shared" si="59"/>
+        <v>365</v>
       </c>
       <c r="J32" s="1">
-        <f>MIN(K32,J33)+J11</f>
-        <v>608</v>
+        <f t="shared" si="59"/>
+        <v>265</v>
       </c>
       <c r="K32" s="1">
-        <f>MIN(L32,K33)+K11</f>
-        <v>617</v>
+        <f t="shared" si="59"/>
+        <v>436</v>
       </c>
       <c r="L32" s="1">
-        <f>MIN(M32,L33)+L11</f>
-        <v>520</v>
+        <f t="shared" si="59"/>
+        <v>371</v>
       </c>
       <c r="M32" s="13">
-        <f t="shared" si="23"/>
-        <v>471</v>
+        <f t="shared" si="38"/>
+        <v>345</v>
       </c>
       <c r="N32" s="1">
-        <f>MIN(O32,N33)+N11</f>
-        <v>335</v>
+        <f t="shared" ref="N32:S32" si="60">MIN(O32,N33)+AJ11</f>
+        <v>198</v>
       </c>
       <c r="O32" s="1">
-        <f>MIN(P32,O33)+O11</f>
-        <v>324</v>
+        <f t="shared" si="60"/>
+        <v>213</v>
       </c>
       <c r="P32" s="1">
-        <f>MIN(Q32,P33)+P11</f>
-        <v>304</v>
+        <f t="shared" si="60"/>
+        <v>372</v>
       </c>
       <c r="Q32" s="1">
-        <f>MIN(R32,Q33)+Q11</f>
-        <v>266</v>
+        <f t="shared" si="60"/>
+        <v>334</v>
       </c>
       <c r="R32" s="1">
-        <f>MIN(S32,R33)+R11</f>
-        <v>203</v>
+        <f t="shared" si="60"/>
+        <v>393</v>
       </c>
       <c r="S32" s="1">
-        <f>MIN(T32,S33)+S11</f>
-        <v>184</v>
+        <f t="shared" si="60"/>
+        <v>374</v>
       </c>
       <c r="T32" s="13">
-        <f t="shared" si="21"/>
-        <v>157</v>
+        <f t="shared" si="24"/>
+        <v>404</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
-        <f>MIN(B33,A34)+A12</f>
-        <v>968</v>
+        <f t="shared" si="52"/>
+        <v>571</v>
       </c>
       <c r="B33" s="13">
-        <f t="shared" si="25"/>
-        <v>923</v>
+        <f t="shared" si="56"/>
+        <v>606</v>
       </c>
       <c r="C33" s="1">
-        <f>MIN(D33,C34)+C12</f>
-        <v>962</v>
+        <f t="shared" ref="C33:L33" si="61">MIN(D33,C34)+Y12</f>
+        <v>391</v>
       </c>
       <c r="D33" s="1">
-        <f>MIN(E33,D34)+D12</f>
-        <v>890</v>
+        <f t="shared" si="61"/>
+        <v>391</v>
       </c>
       <c r="E33" s="1">
-        <f>MIN(F33,E34)+E12</f>
-        <v>857</v>
+        <f t="shared" si="61"/>
+        <v>391</v>
       </c>
       <c r="F33" s="1">
-        <f>MIN(G33,F34)+F12</f>
-        <v>842</v>
+        <f t="shared" si="61"/>
+        <v>391</v>
       </c>
       <c r="G33" s="1">
-        <f>MIN(H33,G34)+G12</f>
-        <v>744</v>
+        <f t="shared" si="61"/>
+        <v>293</v>
       </c>
       <c r="H33" s="1">
-        <f>MIN(I33,H34)+H12</f>
-        <v>645</v>
+        <f t="shared" si="61"/>
+        <v>293</v>
       </c>
       <c r="I33" s="1">
-        <f>MIN(J33,I34)+I12</f>
-        <v>617</v>
+        <f t="shared" si="61"/>
+        <v>265</v>
       </c>
       <c r="J33" s="1">
-        <f>MIN(K33,J34)+J12</f>
-        <v>539</v>
+        <f t="shared" si="61"/>
+        <v>265</v>
       </c>
       <c r="K33" s="1">
-        <f>MIN(L33,K34)+K12</f>
-        <v>565</v>
+        <f t="shared" si="61"/>
+        <v>339</v>
       </c>
       <c r="L33" s="1">
-        <f>MIN(M33,L34)+L12</f>
-        <v>524</v>
+        <f t="shared" si="61"/>
+        <v>322</v>
       </c>
       <c r="M33" s="13">
-        <f t="shared" si="23"/>
-        <v>471</v>
+        <f t="shared" si="38"/>
+        <v>269</v>
       </c>
       <c r="N33" s="1">
-        <f>MIN(O33,N34)+N12</f>
-        <v>299</v>
+        <f t="shared" ref="N33:S33" si="62">MIN(O33,N34)+AJ12</f>
+        <v>198</v>
       </c>
       <c r="O33" s="1">
-        <f>MIN(P33,O34)+O12</f>
-        <v>252</v>
+        <f t="shared" si="62"/>
+        <v>213</v>
       </c>
       <c r="P33" s="1">
-        <f>MIN(Q33,P34)+P12</f>
-        <v>237</v>
+        <f t="shared" si="62"/>
+        <v>305</v>
       </c>
       <c r="Q33" s="1">
-        <f>MIN(R33,Q34)+Q12</f>
-        <v>202</v>
+        <f t="shared" si="62"/>
+        <v>270</v>
       </c>
       <c r="R33" s="1">
-        <f>MIN(S33,R34)+R12</f>
-        <v>157</v>
+        <f t="shared" si="62"/>
+        <v>347</v>
       </c>
       <c r="S33" s="1">
-        <f>MIN(T33,S34)+S12</f>
-        <v>84</v>
+        <f t="shared" si="62"/>
+        <v>274</v>
       </c>
       <c r="T33" s="13">
-        <f t="shared" si="21"/>
-        <v>157</v>
+        <f t="shared" si="24"/>
+        <v>379</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
-        <f>MIN(B34,A35)+A13</f>
-        <v>961</v>
+        <f t="shared" si="52"/>
+        <v>571</v>
       </c>
       <c r="B34" s="13">
-        <f t="shared" si="25"/>
-        <v>923</v>
+        <f t="shared" si="56"/>
+        <v>566</v>
       </c>
       <c r="C34" s="1">
-        <f>MIN(D34,C35)+C13</f>
-        <v>916</v>
+        <f t="shared" ref="C34:K34" si="63">MIN(D34,C35)+Y13</f>
+        <v>506</v>
       </c>
       <c r="D34" s="1">
-        <f>MIN(E34,D35)+D13</f>
-        <v>899</v>
+        <f t="shared" si="63"/>
+        <v>489</v>
       </c>
       <c r="E34" s="1">
-        <f>MIN(F34,E35)+E13</f>
-        <v>830</v>
+        <f t="shared" si="63"/>
+        <v>420</v>
       </c>
       <c r="F34" s="1">
-        <f>MIN(G34,F35)+F13</f>
-        <v>796</v>
+        <f t="shared" si="63"/>
+        <v>386</v>
       </c>
       <c r="G34" s="1">
-        <f>MIN(H34,G35)+G13</f>
-        <v>741</v>
+        <f t="shared" si="63"/>
+        <v>409</v>
       </c>
       <c r="H34" s="1">
-        <f>MIN(I34,H35)+H13</f>
-        <v>650</v>
+        <f t="shared" si="63"/>
+        <v>318</v>
       </c>
       <c r="I34" s="1">
-        <f>MIN(J34,I35)+I13</f>
-        <v>576</v>
+        <f t="shared" si="63"/>
+        <v>329</v>
       </c>
       <c r="J34" s="1">
-        <f>MIN(K34,J35)+J13</f>
-        <v>512</v>
+        <f t="shared" si="63"/>
+        <v>265</v>
       </c>
       <c r="K34" s="1">
-        <f>MIN(L34,K35)+K13</f>
-        <v>491</v>
+        <f t="shared" si="63"/>
+        <v>265</v>
       </c>
       <c r="L34" s="1">
-        <f>MIN(M34,L35)+L13</f>
-        <v>513</v>
+        <f t="shared" ref="L34:M34" si="64">MIN(M34,L35)+AH13</f>
+        <v>278</v>
       </c>
       <c r="M34" s="1">
-        <f>MIN(N34,M35)+M13</f>
-        <v>471</v>
+        <f t="shared" si="64"/>
+        <v>198</v>
       </c>
       <c r="N34" s="1">
-        <f>MIN(O34,N35)+N13</f>
-        <v>429</v>
+        <f t="shared" ref="N34:S34" si="65">MIN(O34,N35)+AJ13</f>
+        <v>151</v>
       </c>
       <c r="O34" s="1">
-        <f>MIN(P34,O35)+O13</f>
-        <v>395</v>
+        <f t="shared" si="65"/>
+        <v>213</v>
       </c>
       <c r="P34" s="1">
-        <f>MIN(Q34,P35)+P13</f>
-        <v>310</v>
+        <f t="shared" si="65"/>
+        <v>320</v>
       </c>
       <c r="Q34" s="1">
-        <f>MIN(R34,Q35)+Q13</f>
-        <v>260</v>
+        <f t="shared" si="65"/>
+        <v>270</v>
       </c>
       <c r="R34" s="1">
-        <f>MIN(S34,R35)+R13</f>
-        <v>161</v>
+        <f t="shared" si="65"/>
+        <v>351</v>
       </c>
       <c r="S34" s="1">
-        <f>MIN(T34,S35)+S13</f>
-        <v>82</v>
+        <f t="shared" si="65"/>
+        <v>272</v>
       </c>
       <c r="T34" s="13">
-        <f t="shared" si="21"/>
-        <v>76</v>
+        <f t="shared" si="24"/>
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
-        <f>MIN(B35,A36)+A14</f>
-        <v>951</v>
+        <f t="shared" si="52"/>
+        <v>533</v>
       </c>
       <c r="B35" s="13">
-        <f t="shared" si="25"/>
-        <v>923</v>
+        <f t="shared" si="56"/>
+        <v>564</v>
       </c>
       <c r="C35" s="1">
-        <f>MIN(D35,C36)+C14</f>
-        <v>828</v>
+        <f t="shared" ref="C35:K35" si="66">MIN(D35,C36)+Y14</f>
+        <v>418</v>
       </c>
       <c r="D35" s="1">
-        <f>MIN(E35,D36)+D14</f>
-        <v>799</v>
+        <f t="shared" si="66"/>
+        <v>389</v>
       </c>
       <c r="E35" s="1">
-        <f>MIN(F35,E36)+E14</f>
-        <v>744</v>
+        <f t="shared" si="66"/>
+        <v>334</v>
       </c>
       <c r="F35" s="1">
-        <f>MIN(G35,F36)+F14</f>
-        <v>728</v>
+        <f t="shared" si="66"/>
+        <v>318</v>
       </c>
       <c r="G35" s="1">
-        <f>MIN(H35,G36)+G14</f>
-        <v>653</v>
+        <f t="shared" si="66"/>
+        <v>318</v>
       </c>
       <c r="H35" s="1">
-        <f>MIN(I35,H36)+H14</f>
-        <v>572</v>
+        <f t="shared" si="66"/>
+        <v>318</v>
       </c>
       <c r="I35" s="1">
-        <f>MIN(J35,I36)+I14</f>
-        <v>519</v>
+        <f t="shared" si="66"/>
+        <v>265</v>
       </c>
       <c r="J35" s="1">
-        <f>MIN(K35,J36)+J14</f>
-        <v>517</v>
+        <f t="shared" si="66"/>
+        <v>291</v>
       </c>
       <c r="K35" s="1">
-        <f>MIN(L35,K36)+K14</f>
-        <v>486</v>
+        <f t="shared" si="66"/>
+        <v>260</v>
       </c>
       <c r="L35" s="1">
-        <f>MIN(M35,L36)+L14</f>
-        <v>433</v>
+        <f t="shared" ref="L35:M35" si="67">MIN(M35,L36)+AH14</f>
+        <v>207</v>
       </c>
       <c r="M35" s="1">
-        <f>MIN(N35,M36)+M14</f>
-        <v>424</v>
+        <f t="shared" si="67"/>
+        <v>207</v>
       </c>
       <c r="N35" s="1">
-        <f>MIN(O35,N36)+N14</f>
-        <v>339</v>
+        <f t="shared" ref="N35:S35" si="68">MIN(O35,N36)+AJ14</f>
+        <v>151</v>
       </c>
       <c r="O35" s="1">
-        <f>MIN(P35,O36)+O14</f>
-        <v>316</v>
+        <f t="shared" si="68"/>
+        <v>128</v>
       </c>
       <c r="P35" s="1">
-        <f>MIN(Q35,P36)+P14</f>
-        <v>319</v>
+        <f t="shared" si="68"/>
+        <v>332</v>
       </c>
       <c r="Q35" s="1">
-        <f>MIN(R35,Q36)+Q14</f>
-        <v>257</v>
+        <f t="shared" si="68"/>
+        <v>270</v>
       </c>
       <c r="R35" s="1">
-        <f>MIN(S35,R36)+R14</f>
-        <v>170</v>
+        <f t="shared" si="68"/>
+        <v>332</v>
       </c>
       <c r="S35" s="1">
-        <f>MIN(T35,S36)+S14</f>
-        <v>100</v>
+        <f t="shared" si="68"/>
+        <v>272</v>
       </c>
       <c r="T35" s="13">
-        <f t="shared" si="21"/>
-        <v>76</v>
+        <f t="shared" si="24"/>
+        <v>350</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
-        <f>MIN(B36,A37)+A15</f>
-        <v>955</v>
+        <f t="shared" si="52"/>
+        <v>505</v>
       </c>
       <c r="B36" s="1">
-        <f>MIN(C36,B37)+B15</f>
-        <v>923</v>
+        <f>MIN(C36,B37)+X15</f>
+        <v>473</v>
       </c>
       <c r="C36" s="1">
-        <f>MIN(D36,C37)+C15</f>
-        <v>882</v>
+        <f t="shared" ref="C36:H36" si="69">MIN(D36,C37)+Y15</f>
+        <v>432</v>
       </c>
       <c r="D36" s="1">
-        <f>MIN(E36,D37)+D15</f>
-        <v>866</v>
+        <f t="shared" si="69"/>
+        <v>416</v>
       </c>
       <c r="E36" s="1">
-        <f>MIN(F36,E37)+E15</f>
-        <v>824</v>
+        <f t="shared" si="69"/>
+        <v>416</v>
       </c>
       <c r="F36" s="1">
-        <f>MIN(G36,F37)+F15</f>
-        <v>756</v>
+        <f t="shared" si="69"/>
+        <v>348</v>
       </c>
       <c r="G36" s="1">
-        <f>MIN(H36,G37)+G15</f>
-        <v>751</v>
+        <f t="shared" si="69"/>
+        <v>343</v>
       </c>
       <c r="H36" s="1">
-        <f>MIN(I36,H37)+H15</f>
-        <v>717</v>
+        <f t="shared" si="69"/>
+        <v>309</v>
       </c>
       <c r="I36" s="11">
-        <f t="shared" ref="I36:K36" si="26">J36+I15</f>
-        <v>671</v>
+        <f t="shared" ref="I36:K36" si="70">J36+AE15</f>
+        <v>263</v>
       </c>
       <c r="J36" s="11">
-        <f t="shared" si="26"/>
-        <v>632</v>
+        <f t="shared" si="70"/>
+        <v>263</v>
       </c>
       <c r="K36" s="11">
-        <f t="shared" si="26"/>
-        <v>539</v>
+        <f t="shared" si="70"/>
+        <v>263</v>
       </c>
       <c r="L36" s="1">
-        <f>MIN(M36,L37)+L15</f>
-        <v>493</v>
+        <f t="shared" ref="L36:M36" si="71">MIN(M36,L37)+AH15</f>
+        <v>217</v>
       </c>
       <c r="M36" s="1">
-        <f>MIN(N36,M37)+M15</f>
-        <v>398</v>
+        <f t="shared" si="71"/>
+        <v>122</v>
       </c>
       <c r="N36" s="1">
-        <f>MIN(O36,N37)+N15</f>
-        <v>367</v>
+        <f t="shared" ref="N36:S36" si="72">MIN(O36,N37)+AJ15</f>
+        <v>179</v>
       </c>
       <c r="O36" s="1">
-        <f>MIN(P36,O37)+O15</f>
-        <v>279</v>
+        <f t="shared" si="72"/>
+        <v>91</v>
       </c>
       <c r="P36" s="1">
-        <f>MIN(Q36,P37)+P15</f>
-        <v>258</v>
+        <f t="shared" si="72"/>
+        <v>281</v>
       </c>
       <c r="Q36" s="1">
-        <f>MIN(R36,Q37)+Q15</f>
-        <v>233</v>
+        <f t="shared" si="72"/>
+        <v>270</v>
       </c>
       <c r="R36" s="1">
-        <f>MIN(S36,R37)+R15</f>
-        <v>204</v>
+        <f t="shared" si="72"/>
+        <v>262</v>
       </c>
       <c r="S36" s="1">
-        <f>MIN(T36,S37)+S15</f>
-        <v>147</v>
+        <f t="shared" si="72"/>
+        <v>272</v>
       </c>
       <c r="T36" s="13">
-        <f t="shared" si="21"/>
-        <v>76</v>
+        <f t="shared" si="24"/>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -4591,52 +4587,52 @@
       <c r="G37" s="1"/>
       <c r="H37" s="5"/>
       <c r="I37" s="14">
-        <f>MIN(J37,I38)+I16</f>
-        <v>540</v>
+        <f t="shared" ref="I37:S37" si="73">MIN(J37,I38)+AE16</f>
+        <v>195</v>
       </c>
       <c r="J37" s="1">
-        <f>MIN(K37,J38)+J16</f>
-        <v>533</v>
+        <f t="shared" si="73"/>
+        <v>181</v>
       </c>
       <c r="K37" s="1">
-        <f>MIN(L37,K38)+K16</f>
-        <v>516</v>
+        <f t="shared" si="73"/>
+        <v>126</v>
       </c>
       <c r="L37" s="1">
-        <f>MIN(M37,L38)+L16</f>
-        <v>471</v>
+        <f t="shared" si="73"/>
+        <v>156</v>
       </c>
       <c r="M37" s="1">
-        <f>MIN(N37,M38)+M16</f>
-        <v>408</v>
+        <f t="shared" si="73"/>
+        <v>91</v>
       </c>
       <c r="N37" s="1">
-        <f>MIN(O37,N38)+N16</f>
-        <v>327</v>
+        <f t="shared" si="73"/>
+        <v>96</v>
       </c>
       <c r="O37" s="1">
-        <f>MIN(P37,O38)+O16</f>
-        <v>322</v>
+        <f t="shared" si="73"/>
+        <v>91</v>
       </c>
       <c r="P37" s="1">
-        <f>MIN(Q37,P38)+P16</f>
-        <v>304</v>
+        <f t="shared" si="73"/>
+        <v>256</v>
       </c>
       <c r="Q37" s="1">
-        <f>MIN(R37,Q38)+Q16</f>
-        <v>212</v>
+        <f t="shared" si="73"/>
+        <v>241</v>
       </c>
       <c r="R37" s="1">
-        <f>MIN(S37,R38)+R16</f>
-        <v>166</v>
+        <f t="shared" si="73"/>
+        <v>262</v>
       </c>
       <c r="S37" s="1">
-        <f>MIN(T37,S38)+S16</f>
-        <v>105</v>
+        <f t="shared" si="73"/>
+        <v>201</v>
       </c>
       <c r="T37" s="13">
-        <f t="shared" si="21"/>
-        <v>76</v>
+        <f t="shared" si="24"/>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -4649,52 +4645,52 @@
       <c r="G38" s="1"/>
       <c r="H38" s="5"/>
       <c r="I38" s="1">
-        <f>MIN(J38,I39)+I17</f>
-        <v>505</v>
+        <f t="shared" ref="I38:S38" si="74">MIN(J38,I39)+AE17</f>
+        <v>160</v>
       </c>
       <c r="J38" s="1">
-        <f>MIN(K38,J39)+J17</f>
-        <v>478</v>
+        <f t="shared" si="74"/>
+        <v>163</v>
       </c>
       <c r="K38" s="1">
-        <f>MIN(L38,K39)+K17</f>
-        <v>441</v>
+        <f t="shared" si="74"/>
+        <v>126</v>
       </c>
       <c r="L38" s="1">
-        <f>MIN(M38,L39)+L17</f>
-        <v>406</v>
+        <f t="shared" si="74"/>
+        <v>91</v>
       </c>
       <c r="M38" s="1">
-        <f>MIN(N38,M39)+M17</f>
-        <v>343</v>
+        <f t="shared" si="74"/>
+        <v>91</v>
       </c>
       <c r="N38" s="1">
-        <f>MIN(O38,N39)+N17</f>
-        <v>340</v>
+        <f t="shared" si="74"/>
+        <v>91</v>
       </c>
       <c r="O38" s="1">
-        <f>MIN(P38,O39)+O17</f>
-        <v>310</v>
+        <f t="shared" si="74"/>
+        <v>91</v>
       </c>
       <c r="P38" s="1">
-        <f>MIN(Q38,P39)+P17</f>
-        <v>340</v>
+        <f t="shared" si="74"/>
+        <v>164</v>
       </c>
       <c r="Q38" s="1">
-        <f>MIN(R38,Q39)+Q17</f>
-        <v>253</v>
+        <f t="shared" si="74"/>
+        <v>195</v>
       </c>
       <c r="R38" s="1">
-        <f>MIN(S38,R39)+R17</f>
-        <v>223</v>
+        <f t="shared" si="74"/>
+        <v>242</v>
       </c>
       <c r="S38" s="1">
-        <f>MIN(T38,S39)+S17</f>
-        <v>153</v>
+        <f t="shared" si="74"/>
+        <v>172</v>
       </c>
       <c r="T38" s="13">
-        <f t="shared" si="21"/>
-        <v>76</v>
+        <f t="shared" si="24"/>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -4707,52 +4703,52 @@
       <c r="G39" s="1"/>
       <c r="H39" s="5"/>
       <c r="I39" s="1">
-        <f>MIN(J39,I40)+I18</f>
-        <v>546</v>
+        <f t="shared" ref="I39:S39" si="75">MIN(J39,I40)+AE18</f>
+        <v>160</v>
       </c>
       <c r="J39" s="1">
-        <f>MIN(K39,J40)+J18</f>
-        <v>447</v>
+        <f t="shared" si="75"/>
+        <v>167</v>
       </c>
       <c r="K39" s="1">
-        <f>MIN(L39,K40)+K18</f>
-        <v>509</v>
+        <f t="shared" si="75"/>
+        <v>229</v>
       </c>
       <c r="L39" s="1">
-        <f>MIN(M39,L40)+L18</f>
-        <v>438</v>
+        <f t="shared" si="75"/>
+        <v>207</v>
       </c>
       <c r="M39" s="1">
-        <f>MIN(N39,M40)+M18</f>
-        <v>353</v>
+        <f t="shared" si="75"/>
+        <v>122</v>
       </c>
       <c r="N39" s="1">
-        <f>MIN(O39,N40)+N18</f>
-        <v>322</v>
+        <f t="shared" si="75"/>
+        <v>91</v>
       </c>
       <c r="O39" s="1">
-        <f>MIN(P39,O40)+O18</f>
-        <v>283</v>
+        <f t="shared" si="75"/>
+        <v>91</v>
       </c>
       <c r="P39" s="1">
-        <f>MIN(Q39,P40)+P18</f>
-        <v>280</v>
+        <f t="shared" si="75"/>
+        <v>164</v>
       </c>
       <c r="Q39" s="1">
-        <f>MIN(R39,Q40)+Q18</f>
-        <v>207</v>
+        <f t="shared" si="75"/>
+        <v>149</v>
       </c>
       <c r="R39" s="1">
-        <f>MIN(S39,R40)+R18</f>
-        <v>202</v>
+        <f t="shared" si="75"/>
+        <v>189</v>
       </c>
       <c r="S39" s="1">
-        <f>MIN(T39,S40)+S18</f>
-        <v>108</v>
+        <f t="shared" si="75"/>
+        <v>95</v>
       </c>
       <c r="T39" s="13">
-        <f t="shared" si="21"/>
-        <v>76</v>
+        <f t="shared" si="24"/>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -4765,52 +4761,52 @@
       <c r="G40" s="1"/>
       <c r="H40" s="5"/>
       <c r="I40" s="1">
-        <f>MIN(J40,I41)+I19</f>
-        <v>539</v>
+        <f t="shared" ref="I40:R40" si="76">MIN(J40,I41)+AE19</f>
+        <v>160</v>
       </c>
       <c r="J40" s="1">
-        <f>MIN(K40,J41)+J19</f>
-        <v>440</v>
+        <f t="shared" si="76"/>
+        <v>160</v>
       </c>
       <c r="K40" s="1">
-        <f>MIN(L40,K41)+K19</f>
-        <v>438</v>
+        <f t="shared" si="76"/>
+        <v>158</v>
       </c>
       <c r="L40" s="1">
-        <f>MIN(M40,L41)+L19</f>
-        <v>366</v>
+        <f t="shared" si="76"/>
+        <v>158</v>
       </c>
       <c r="M40" s="1">
-        <f>MIN(N40,M41)+M19</f>
-        <v>329</v>
+        <f t="shared" si="76"/>
+        <v>121</v>
       </c>
       <c r="N40" s="1">
-        <f>MIN(O40,N41)+N19</f>
-        <v>325</v>
+        <f t="shared" si="76"/>
+        <v>117</v>
       </c>
       <c r="O40" s="1">
-        <f>MIN(P40,O41)+O19</f>
-        <v>299</v>
+        <f t="shared" si="76"/>
+        <v>91</v>
       </c>
       <c r="P40" s="1">
-        <f>MIN(Q40,P41)+P19</f>
-        <v>233</v>
+        <f t="shared" si="76"/>
+        <v>91</v>
       </c>
       <c r="Q40" s="1">
-        <f>MIN(R40,Q41)+Q19</f>
-        <v>149</v>
+        <f t="shared" si="76"/>
+        <v>91</v>
       </c>
       <c r="R40" s="1">
-        <f>MIN(S40,R41)+R19</f>
-        <v>104</v>
+        <f t="shared" si="76"/>
+        <v>91</v>
       </c>
       <c r="S40" s="1">
-        <f>MIN(T40,S41)+S19</f>
-        <v>67</v>
+        <f>MIN(T40,S41)+AO19</f>
+        <v>54</v>
       </c>
       <c r="T40" s="13">
         <f>T41+AP19</f>
-        <v>76</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4823,47 +4819,47 @@
       <c r="G41" s="11"/>
       <c r="H41" s="12"/>
       <c r="I41" s="11">
-        <f t="shared" ref="A41:R41" si="27">J41+I20</f>
-        <v>502</v>
+        <f t="shared" ref="I41:R41" si="77">J41+AE20</f>
+        <v>397</v>
       </c>
       <c r="J41" s="11">
-        <f t="shared" si="27"/>
-        <v>448</v>
+        <f t="shared" si="77"/>
+        <v>397</v>
       </c>
       <c r="K41" s="11">
-        <f t="shared" si="27"/>
-        <v>432</v>
+        <f t="shared" si="77"/>
+        <v>381</v>
       </c>
       <c r="L41" s="11">
-        <f t="shared" si="27"/>
-        <v>416</v>
+        <f t="shared" si="77"/>
+        <v>365</v>
       </c>
       <c r="M41" s="11">
-        <f t="shared" si="27"/>
-        <v>397</v>
+        <f t="shared" si="77"/>
+        <v>346</v>
       </c>
       <c r="N41" s="11">
-        <f t="shared" si="27"/>
-        <v>339</v>
+        <f t="shared" si="77"/>
+        <v>288</v>
       </c>
       <c r="O41" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="77"/>
         <v>288</v>
       </c>
       <c r="P41" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="77"/>
         <v>265</v>
       </c>
       <c r="Q41" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="77"/>
         <v>189</v>
       </c>
       <c r="R41" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="77"/>
         <v>103</v>
       </c>
       <c r="S41" s="11">
-        <f>T41+S20</f>
+        <f>T41+AO20</f>
         <v>56</v>
       </c>
       <c r="T41" s="6">
